--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>676846.2741049513</v>
+        <v>692164.5878295248</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111184</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6422770.035425079</v>
+        <v>6422770.03542508</v>
       </c>
     </row>
     <row r="11">
@@ -659,67 +659,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.234466016111838</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T2" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>108.9193184962173</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.7452777895381</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
@@ -962,7 +962,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>37.18582309281558</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,67 +1139,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1215,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>8.583694061601907</v>
+        <v>94.4876644797814</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>89.98174747814595</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>122.9488278529106</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>36.69466582748423</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>41.46660291399466</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>73.36175976093789</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.07870608364476</v>
+        <v>102.1810168719384</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>118.9320037792689</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>236.7169210647688</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.3249685652704</v>
       </c>
       <c r="I16" t="n">
-        <v>9.157260519343186</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>35.85275176271214</v>
       </c>
       <c r="S17" t="n">
-        <v>104.6883829405985</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.826374049348503</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -1980,16 +1980,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>40.48971074646364</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>38.9764047481749</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>72.73977835916766</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>140.4097777453836</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2160,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>33.16698036331756</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>40.46506183810501</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.68313739545469</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>73.36175976093797</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>104.1189927826356</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>381.1883785395118</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>81.64831967045147</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>139.3651529453434</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>202.0614472629801</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7.149709277251307</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2643,10 +2643,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>32.38905152560231</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
@@ -2682,13 +2682,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>14.95050555177048</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.78974769572879</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>160.5861482778514</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>98.80659320001075</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,19 +2877,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>13.30631175407583</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>37.82294225920698</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>145.6674229028285</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.03064702585868</v>
+        <v>68.6097626751823</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>62.66407020961277</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>48.98427584501924</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>99.78974769572879</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>18.12022702288997</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>56.0625700794532</v>
+        <v>106.83441342263</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3351,7 +3351,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>62.87173597918728</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3360,7 +3360,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>2.971988461404003</v>
       </c>
     </row>
     <row r="37">
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>11.81861933956881</v>
+        <v>81.63772211848436</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>67.95788114053244</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.9871123324667</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>5.044598444898742</v>
       </c>
       <c r="H39" t="n">
-        <v>77.74100661956436</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
@@ -3639,16 +3639,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>99.78974769572875</v>
       </c>
       <c r="X40" t="n">
-        <v>38.97640474817496</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>181.2878961210737</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>44.9756653494132</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
@@ -3837,7 +3837,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>72.99342393229841</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>8.346463858805309</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3898,19 +3898,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>11.3387708909865</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>100.4841613904624</v>
       </c>
       <c r="H44" t="n">
-        <v>72.73977835916804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>111.2675418986057</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>34.99432851686974</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0282495084215</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>226.0945550188371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>226.0945550188371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>325.7766548071333</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.32787816303323</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380.2300195200815</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C6" t="n">
-        <v>205.7769902389545</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D6" t="n">
-        <v>56.84258057770322</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="M6" t="n">
         <v>234.810827406191</v>
-      </c>
-      <c r="M6" t="n">
-        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>756.2056553051034</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y6" t="n">
-        <v>548.4453565401495</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4759,16 +4759,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4835,19 +4835,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.8418184905681</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C9" t="n">
-        <v>621.3887892094411</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D9" t="n">
-        <v>472.4543795481899</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="E9" t="n">
-        <v>313.2169245427344</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="F9" t="n">
-        <v>166.6823665696193</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="G9" t="n">
-        <v>27.95154115223485</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,16 +4890,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4923,10 +4923,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1236.366447923488</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="C11" t="n">
-        <v>867.4039309830762</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D11" t="n">
-        <v>509.1382323763257</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E11" t="n">
-        <v>123.3499797780814</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F11" t="n">
-        <v>123.3499797780814</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G11" t="n">
-        <v>123.3499797780814</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011322</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.96628798761</v>
+        <v>1498.775552782649</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.96628798761</v>
+        <v>1498.775552782649</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.96628798761</v>
+        <v>1146.006897512535</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.96628798761</v>
+        <v>1146.006897512535</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.96628798761</v>
+        <v>755.8675655367231</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>512.6843680194497</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C12" t="n">
-        <v>338.2313387383227</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D12" t="n">
         <v>338.2313387383227</v>
@@ -5106,64 +5106,64 @@
         <v>178.9938837328672</v>
       </c>
       <c r="F12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N12" t="n">
-        <v>1271.486777082839</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U12" t="n">
-        <v>1585.900968969949</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V12" t="n">
-        <v>1350.748860738206</v>
+        <v>1499.683270399457</v>
       </c>
       <c r="W12" t="n">
-        <v>1096.511504010005</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="X12" t="n">
-        <v>888.6600038044717</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="Y12" t="n">
-        <v>680.8997050395178</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5230,19 +5230,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5291,7 +5291,7 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
@@ -5300,28 +5300,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1567.331231337463</v>
+        <v>1519.753139632116</v>
       </c>
       <c r="S14" t="n">
-        <v>1567.331231337463</v>
+        <v>1519.753139632116</v>
       </c>
       <c r="T14" t="n">
-        <v>1344.587311718231</v>
+        <v>1519.753139632116</v>
       </c>
       <c r="U14" t="n">
-        <v>1090.750428650485</v>
+        <v>1519.753139632116</v>
       </c>
       <c r="V14" t="n">
-        <v>759.6875413069145</v>
+        <v>1519.753139632116</v>
       </c>
       <c r="W14" t="n">
-        <v>759.6875413069145</v>
+        <v>1519.753139632116</v>
       </c>
       <c r="X14" t="n">
-        <v>759.6875413069145</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="Y14" t="n">
-        <v>759.6875413069145</v>
+        <v>1146.287381371036</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>676.1124257027959</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C15" t="n">
-        <v>555.9790885520192</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D15" t="n">
-        <v>555.9790885520192</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E15" t="n">
-        <v>396.7416335465637</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F15" t="n">
-        <v>250.2070755734487</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
@@ -5358,49 +5358,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
-        <v>147.3709770270845</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L15" t="n">
-        <v>147.3709770270845</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313475</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082808</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V15" t="n">
-        <v>1306.416619656598</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W15" t="n">
-        <v>1052.179262928397</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="X15" t="n">
-        <v>844.327762722864</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="Y15" t="n">
-        <v>844.327762722864</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="16">
@@ -5416,22 +5416,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="D16" t="n">
-        <v>211.1299621906144</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E16" t="n">
-        <v>211.1299621906144</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F16" t="n">
-        <v>211.1299621906144</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G16" t="n">
-        <v>41.70908386009884</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H16" t="n">
-        <v>41.70908386009884</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975219</v>
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C17" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D17" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E17" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F17" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G17" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
         <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5537,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214177</v>
+        <v>1586.751387217193</v>
       </c>
       <c r="S17" t="n">
-        <v>1403.224803860037</v>
+        <v>1586.751387217193</v>
       </c>
       <c r="T17" t="n">
-        <v>1180.480884240805</v>
+        <v>1364.007467597961</v>
       </c>
       <c r="U17" t="n">
-        <v>926.6440011730592</v>
+        <v>1110.170584530215</v>
       </c>
       <c r="V17" t="n">
-        <v>595.5811138294886</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="W17" t="n">
-        <v>595.5811138294886</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="X17" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="Y17" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>206.9123550408792</v>
+        <v>858.1430395686787</v>
       </c>
       <c r="C18" t="n">
-        <v>32.45932575975218</v>
+        <v>683.6900102875517</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975218</v>
+        <v>534.7556006263004</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975218</v>
+        <v>375.5181456208449</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975218</v>
+        <v>228.9835876477299</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M18" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O18" t="n">
         <v>1380.722538783602</v>
@@ -5616,28 +5616,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="X18" t="n">
-        <v>414.6726538058331</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="Y18" t="n">
-        <v>206.9123550408792</v>
+        <v>1026.358376588747</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5695,28 +5695,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>254.0859912868768</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1311.402045381201</v>
+        <v>738.230242413013</v>
       </c>
       <c r="C20" t="n">
-        <v>1311.402045381201</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D20" t="n">
-        <v>1311.402045381201</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E20" t="n">
-        <v>925.6137927829566</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F20" t="n">
-        <v>515.7738210689138</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G20" t="n">
-        <v>105.933849354871</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975218</v>
@@ -5774,28 +5774,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1311.402045381201</v>
+        <v>1481.138229658939</v>
       </c>
       <c r="U20" t="n">
-        <v>1311.402045381201</v>
+        <v>1481.138229658939</v>
       </c>
       <c r="V20" t="n">
-        <v>1311.402045381201</v>
+        <v>1481.138229658939</v>
       </c>
       <c r="W20" t="n">
-        <v>1311.402045381201</v>
+        <v>1128.369574388825</v>
       </c>
       <c r="X20" t="n">
-        <v>1311.402045381201</v>
+        <v>1128.369574388825</v>
       </c>
       <c r="Y20" t="n">
-        <v>1311.402045381201</v>
+        <v>738.230242413013</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>776.7454794694102</v>
+        <v>617.3995602270186</v>
       </c>
       <c r="C21" t="n">
-        <v>776.7454794694102</v>
+        <v>442.9465309458916</v>
       </c>
       <c r="D21" t="n">
-        <v>627.8110698081589</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="E21" t="n">
-        <v>468.5736148027034</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F21" t="n">
-        <v>322.0390568295884</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G21" t="n">
-        <v>183.6266835887586</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H21" t="n">
-        <v>73.33312559622189</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>256.6067387278472</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321102</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U21" t="n">
-        <v>944.9608164894781</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V21" t="n">
-        <v>944.9608164894781</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="W21" t="n">
-        <v>944.9608164894781</v>
+        <v>1201.226696217573</v>
       </c>
       <c r="X21" t="n">
-        <v>944.9608164894781</v>
+        <v>993.3751960120405</v>
       </c>
       <c r="Y21" t="n">
-        <v>944.9608164894781</v>
+        <v>785.6148972470867</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="G22" t="n">
         <v>32.45932575975218</v>
@@ -5938,22 +5938,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W22" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X22" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.5925424806039</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="C23" t="n">
-        <v>137.6300255401922</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975218</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975218</v>
@@ -5987,10 +5987,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6002,37 +6002,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W23" t="n">
-        <v>1270.197632717495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X23" t="n">
-        <v>896.7318744564157</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.5925424806039</v>
+        <v>1237.927521786082</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>355.8467647021305</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C24" t="n">
-        <v>181.3937354210034</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E24" t="n">
         <v>32.45932575975218</v>
@@ -6078,40 +6078,40 @@
         <v>934.1153971668618</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1482.193406224636</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1281.290397330129</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U24" t="n">
-        <v>1053.087729867608</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V24" t="n">
-        <v>817.9356216358649</v>
+        <v>910.7117171522423</v>
       </c>
       <c r="W24" t="n">
-        <v>563.6982649076633</v>
+        <v>656.4743604240407</v>
       </c>
       <c r="X24" t="n">
-        <v>355.8467647021305</v>
+        <v>448.6228602185079</v>
       </c>
       <c r="Y24" t="n">
-        <v>355.8467647021305</v>
+        <v>448.6228602185079</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
         <v>32.45932575975218</v>
@@ -6172,25 +6172,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>139.6199360758255</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X25" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>605.5243146829721</v>
+        <v>859.361197750718</v>
       </c>
       <c r="C26" t="n">
-        <v>236.5617977425604</v>
+        <v>859.361197750718</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975219</v>
+        <v>859.361197750718</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>859.361197750718</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>449.5212260366752</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>39.6812543226323</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>39.6812543226323</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975219</v>
@@ -6257,19 +6257,19 @@
         <v>1622.96628798761</v>
       </c>
       <c r="U26" t="n">
-        <v>1369.129404919864</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V26" t="n">
-        <v>1369.129404919864</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W26" t="n">
-        <v>1369.129404919864</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X26" t="n">
-        <v>995.6636466587838</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y26" t="n">
-        <v>605.5243146829721</v>
+        <v>859.361197750718</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>668.6724982326921</v>
+        <v>883.963925908329</v>
       </c>
       <c r="C27" t="n">
-        <v>668.6724982326921</v>
+        <v>709.510896627202</v>
       </c>
       <c r="D27" t="n">
-        <v>519.7380885714408</v>
+        <v>560.5764869659507</v>
       </c>
       <c r="E27" t="n">
-        <v>360.5006335659854</v>
+        <v>401.3390319604952</v>
       </c>
       <c r="F27" t="n">
-        <v>360.5006335659854</v>
+        <v>254.8044739873802</v>
       </c>
       <c r="G27" t="n">
         <v>222.0882603251556</v>
@@ -6306,13 +6306,13 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K27" t="n">
-        <v>201.1187329501919</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L27" t="n">
-        <v>498.8504879318551</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M27" t="n">
-        <v>898.2686245361181</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N27" t="n">
         <v>1299.952780813052</v>
@@ -6330,25 +6330,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U27" t="n">
-        <v>1158.061963192636</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V27" t="n">
-        <v>922.9098549608937</v>
+        <v>1306.416619656599</v>
       </c>
       <c r="W27" t="n">
-        <v>668.6724982326921</v>
+        <v>1052.179262928397</v>
       </c>
       <c r="X27" t="n">
-        <v>668.6724982326921</v>
+        <v>1052.179262928397</v>
       </c>
       <c r="Y27" t="n">
-        <v>668.6724982326921</v>
+        <v>1052.179262928397</v>
       </c>
     </row>
     <row r="28">
@@ -6421,13 +6421,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X28" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1286.226725594945</v>
+        <v>1523.161648391639</v>
       </c>
       <c r="C29" t="n">
-        <v>917.2642086545338</v>
+        <v>1523.161648391639</v>
       </c>
       <c r="D29" t="n">
-        <v>917.2642086545338</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="E29" t="n">
-        <v>531.4759560562895</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F29" t="n">
-        <v>531.4759560562895</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G29" t="n">
-        <v>531.4759560562895</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H29" t="n">
-        <v>194.6675563434404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975219</v>
@@ -6470,7 +6470,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6485,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1286.226725594945</v>
+        <v>1523.161648391639</v>
       </c>
       <c r="U29" t="n">
-        <v>1286.226725594945</v>
+        <v>1523.161648391639</v>
       </c>
       <c r="V29" t="n">
-        <v>1286.226725594945</v>
+        <v>1523.161648391639</v>
       </c>
       <c r="W29" t="n">
-        <v>1286.226725594945</v>
+        <v>1523.161648391639</v>
       </c>
       <c r="X29" t="n">
-        <v>1286.226725594945</v>
+        <v>1523.161648391639</v>
       </c>
       <c r="Y29" t="n">
-        <v>1286.226725594945</v>
+        <v>1523.161648391639</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>838.2361431025479</v>
+        <v>448.6228602185081</v>
       </c>
       <c r="C30" t="n">
-        <v>663.7831138214209</v>
+        <v>274.1698309373811</v>
       </c>
       <c r="D30" t="n">
-        <v>514.8487041601696</v>
+        <v>125.2354212761298</v>
       </c>
       <c r="E30" t="n">
-        <v>355.6112491547141</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F30" t="n">
-        <v>209.0766911815991</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G30" t="n">
-        <v>70.66431794076934</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M30" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N30" t="n">
-        <v>1131.293373622612</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O30" t="n">
-        <v>1454.30688079717</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P30" t="n">
         <v>1513.730526286846</v>
@@ -6564,28 +6564,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1422.063279093103</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U30" t="n">
-        <v>1422.063279093103</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V30" t="n">
-        <v>1422.063279093103</v>
+        <v>910.7117171522425</v>
       </c>
       <c r="W30" t="n">
-        <v>1422.063279093103</v>
+        <v>656.4743604240409</v>
       </c>
       <c r="X30" t="n">
-        <v>1214.21177888757</v>
+        <v>448.6228602185081</v>
       </c>
       <c r="Y30" t="n">
-        <v>1006.451480122616</v>
+        <v>448.6228602185081</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975219</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R31" t="n">
-        <v>194.1667418687506</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>401.4218427001639</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975219</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975219</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975219</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975219</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011317</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1582.531290991793</v>
+        <v>1553.663497406617</v>
       </c>
       <c r="T32" t="n">
-        <v>1359.78737137256</v>
+        <v>1553.663497406617</v>
       </c>
       <c r="U32" t="n">
-        <v>1105.950488304814</v>
+        <v>1299.826614338871</v>
       </c>
       <c r="V32" t="n">
-        <v>774.8876009612438</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="W32" t="n">
-        <v>774.8876009612438</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="X32" t="n">
-        <v>401.4218427001639</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.4218427001639</v>
+        <v>968.7637269953007</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>989.6600854869342</v>
+        <v>550.4627890153445</v>
       </c>
       <c r="C33" t="n">
-        <v>815.2070562058072</v>
+        <v>550.4627890153445</v>
       </c>
       <c r="D33" t="n">
-        <v>666.272646544556</v>
+        <v>401.5283793540932</v>
       </c>
       <c r="E33" t="n">
-        <v>507.0351915391004</v>
+        <v>242.2909243486377</v>
       </c>
       <c r="F33" t="n">
-        <v>360.5006335659854</v>
+        <v>95.75636637552267</v>
       </c>
       <c r="G33" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975219</v>
@@ -6780,49 +6780,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L33" t="n">
-        <v>256.6067387278474</v>
+        <v>147.3709770270846</v>
       </c>
       <c r="M33" t="n">
-        <v>656.0248753321104</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U33" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V33" t="n">
-        <v>1622.966287987609</v>
+        <v>1220.311944714033</v>
       </c>
       <c r="W33" t="n">
-        <v>1573.487221477489</v>
+        <v>966.0745879858312</v>
       </c>
       <c r="X33" t="n">
-        <v>1365.635721271956</v>
+        <v>758.2230877802983</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.875422507002</v>
+        <v>550.4627890153445</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>133.2570507049328</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C34" t="n">
-        <v>133.2570507049328</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D34" t="n">
-        <v>133.2570507049328</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E34" t="n">
-        <v>133.2570507049328</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F34" t="n">
-        <v>133.2570507049328</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G34" t="n">
-        <v>133.2570507049328</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H34" t="n">
-        <v>133.2570507049328</v>
+        <v>199.7544622051772</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975219</v>
+        <v>50.76258537883297</v>
       </c>
       <c r="J34" t="n">
         <v>32.45932575975219</v>
@@ -6898,10 +6898,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="X34" t="n">
-        <v>133.2570507049328</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.2570507049328</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.08818442586653</v>
+        <v>526.1611272697439</v>
       </c>
       <c r="C35" t="n">
-        <v>89.08818442586653</v>
+        <v>526.1611272697439</v>
       </c>
       <c r="D35" t="n">
-        <v>89.08818442586653</v>
+        <v>526.1611272697439</v>
       </c>
       <c r="E35" t="n">
-        <v>89.08818442586653</v>
+        <v>140.3728746714997</v>
       </c>
       <c r="F35" t="n">
-        <v>89.08818442586653</v>
+        <v>140.3728746714997</v>
       </c>
       <c r="G35" t="n">
-        <v>89.08818442586653</v>
+        <v>140.3728746714997</v>
       </c>
       <c r="H35" t="n">
-        <v>89.08818442586653</v>
+        <v>140.3728746714997</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
@@ -6959,28 +6959,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T35" t="n">
-        <v>1400.222368368377</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U35" t="n">
-        <v>1146.385485300631</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V35" t="n">
-        <v>815.3225979570606</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W35" t="n">
-        <v>462.5539426869464</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="X35" t="n">
-        <v>89.08818442586653</v>
+        <v>912.7609673338657</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.08818442586653</v>
+        <v>912.7609673338657</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>783.635876508323</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C36" t="n">
-        <v>609.182847227196</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D36" t="n">
-        <v>460.2484375659448</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E36" t="n">
-        <v>396.7416335465637</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F36" t="n">
-        <v>250.2070755734487</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
         <v>111.7947023326189</v>
@@ -7020,16 +7020,16 @@
         <v>61.20822116384404</v>
       </c>
       <c r="L36" t="n">
-        <v>147.3709770270843</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313473</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P36" t="n">
         <v>1513.730526286846</v>
@@ -7047,19 +7047,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.763620525088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V36" t="n">
-        <v>1159.611512293345</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W36" t="n">
-        <v>1159.611512293345</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X36" t="n">
-        <v>1159.611512293345</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y36" t="n">
-        <v>951.8512135283911</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1622.966287987609</v>
+        <v>114.9216713339788</v>
       </c>
       <c r="C37" t="n">
-        <v>1454.030105059702</v>
+        <v>114.9216713339788</v>
       </c>
       <c r="D37" t="n">
-        <v>1442.092105726805</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y37" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1041.795298996494</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C38" t="n">
-        <v>1041.795298996494</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D38" t="n">
-        <v>1041.795298996494</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E38" t="n">
-        <v>1041.795298996494</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F38" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
         <v>247.3580469011316</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1554.321963603233</v>
       </c>
       <c r="S38" t="n">
-        <v>1508.970645214178</v>
+        <v>1554.321963603233</v>
       </c>
       <c r="T38" t="n">
-        <v>1286.226725594945</v>
+        <v>1554.321963603233</v>
       </c>
       <c r="U38" t="n">
-        <v>1286.226725594945</v>
+        <v>1554.321963603233</v>
       </c>
       <c r="V38" t="n">
-        <v>1041.795298996494</v>
+        <v>1554.321963603233</v>
       </c>
       <c r="W38" t="n">
-        <v>1041.795298996494</v>
+        <v>1201.553308333119</v>
       </c>
       <c r="X38" t="n">
-        <v>1041.795298996494</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="Y38" t="n">
-        <v>1041.795298996494</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>524.0114559318927</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="C39" t="n">
-        <v>349.5584266507657</v>
+        <v>535.3556789766086</v>
       </c>
       <c r="D39" t="n">
-        <v>349.5584266507657</v>
+        <v>386.4212693153573</v>
       </c>
       <c r="E39" t="n">
-        <v>190.3209716453102</v>
+        <v>227.1838143099018</v>
       </c>
       <c r="F39" t="n">
-        <v>190.3209716453102</v>
+        <v>227.1838143099018</v>
       </c>
       <c r="G39" t="n">
-        <v>190.3209716453102</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H39" t="n">
         <v>111.7947023326189</v>
@@ -7251,22 +7251,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L39" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M39" t="n">
-        <v>729.6092173456784</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N39" t="n">
-        <v>1131.293373622612</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O39" t="n">
-        <v>1454.30688079717</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P39" t="n">
         <v>1622.966287987609</v>
@@ -7275,28 +7275,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1422.063279093103</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U39" t="n">
-        <v>1193.860611630581</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V39" t="n">
-        <v>1193.860611630581</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W39" t="n">
-        <v>939.6232549023794</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="X39" t="n">
-        <v>731.7717546968465</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="Y39" t="n">
-        <v>524.0114559318927</v>
+        <v>709.8087082577356</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>71.82943156598952</v>
+        <v>1522.168563042429</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1035.258356178821</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C41" t="n">
-        <v>852.1392691878377</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D41" t="n">
-        <v>852.1392691878377</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E41" t="n">
-        <v>852.1392691878377</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F41" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975219</v>
@@ -7409,16 +7409,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521474</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528323</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1577.536322988202</v>
       </c>
       <c r="S41" t="n">
-        <v>1425.397688154633</v>
+        <v>1379.967723155226</v>
       </c>
       <c r="T41" t="n">
-        <v>1425.397688154633</v>
+        <v>1379.967723155226</v>
       </c>
       <c r="U41" t="n">
-        <v>1425.397688154633</v>
+        <v>1126.13084008748</v>
       </c>
       <c r="V41" t="n">
-        <v>1425.397688154633</v>
+        <v>795.0679527439091</v>
       </c>
       <c r="W41" t="n">
-        <v>1425.397688154633</v>
+        <v>442.299297473795</v>
       </c>
       <c r="X41" t="n">
-        <v>1425.397688154633</v>
+        <v>442.299297473795</v>
       </c>
       <c r="Y41" t="n">
-        <v>1035.258356178821</v>
+        <v>442.299297473795</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>529.3490175189916</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C42" t="n">
-        <v>354.8959882378646</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>354.8959882378646</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>354.8959882378646</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>354.8959882378646</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>216.4836149970348</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>106.1900570044981</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
@@ -7491,22 +7491,22 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>534.697260562599</v>
+        <v>256.6067387278471</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321101</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.799553443796</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1513.730526286846</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7518,22 +7518,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1173.163483952</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U42" t="n">
-        <v>944.9608164894784</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V42" t="n">
-        <v>944.9608164894784</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W42" t="n">
-        <v>944.9608164894784</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="X42" t="n">
-        <v>737.1093162839455</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y42" t="n">
-        <v>529.3490175189916</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1622.966287987609</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E43" t="n">
-        <v>1475.053194405216</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F43" t="n">
-        <v>1463.599890474927</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X43" t="n">
-        <v>1622.966287987609</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y43" t="n">
-        <v>1622.966287987609</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1311.402045381201</v>
+        <v>912.7609673338657</v>
       </c>
       <c r="C44" t="n">
-        <v>1311.402045381201</v>
+        <v>543.798450393454</v>
       </c>
       <c r="D44" t="n">
-        <v>1311.402045381201</v>
+        <v>543.798450393454</v>
       </c>
       <c r="E44" t="n">
-        <v>925.613792782957</v>
+        <v>543.798450393454</v>
       </c>
       <c r="F44" t="n">
-        <v>515.7738210689142</v>
+        <v>133.9584786794112</v>
       </c>
       <c r="G44" t="n">
-        <v>105.9338493548714</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975219</v>
@@ -7646,7 +7646,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
         <v>247.3580469011316</v>
@@ -7673,25 +7673,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T44" t="n">
-        <v>1311.402045381201</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U44" t="n">
-        <v>1311.402045381201</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V44" t="n">
-        <v>1311.402045381201</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W44" t="n">
-        <v>1311.402045381201</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="X44" t="n">
-        <v>1311.402045381201</v>
+        <v>912.7609673338657</v>
       </c>
       <c r="Y44" t="n">
-        <v>1311.402045381201</v>
+        <v>912.7609673338657</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>729.5389244352646</v>
+        <v>953.1171322889211</v>
       </c>
       <c r="C45" t="n">
-        <v>555.0858951541376</v>
+        <v>778.6641030077941</v>
       </c>
       <c r="D45" t="n">
-        <v>555.0858951541376</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E45" t="n">
-        <v>395.8484401486821</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F45" t="n">
         <v>360.5006335659854</v>
@@ -7725,13 +7725,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K45" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L45" t="n">
-        <v>505.9483651585071</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M45" t="n">
         <v>546.7891136313473</v>
@@ -7749,28 +7749,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>1313.366060425819</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V45" t="n">
-        <v>1313.366060425819</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W45" t="n">
-        <v>1313.366060425819</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X45" t="n">
-        <v>1105.514560220287</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y45" t="n">
-        <v>897.7542614553327</v>
+        <v>953.1171322889211</v>
       </c>
     </row>
     <row r="46">
@@ -7837,13 +7837,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W46" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X46" t="n">
         <v>32.45932575975219</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,13 +8067,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N12" t="n">
-        <v>390.1250211658777</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O12" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599045</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>173.9657132208097</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>418.8785602873039</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>351.7205150479948</v>
+        <v>174.1879045256803</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>118.9801165856209</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210649</v>
       </c>
       <c r="N21" t="n">
         <v>455.0874215304796</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>174.18790452568</v>
+        <v>308.5394070542101</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>228.256375769403</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>418.8785602873041</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,10 +10203,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>247.3143048004598</v>
       </c>
       <c r="P30" t="n">
-        <v>133.7959972113199</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>89.94082829865957</v>
+        <v>157.1342855878808</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,7 +10668,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
-        <v>157.1342855878804</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711644</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>86.93262649026374</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>244.1351504444136</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q39" t="n">
         <v>99.7381345027554</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>267.4734388209742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>247.3143048004597</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>73.77211287831321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711644</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>103.5056817990678</v>
+        <v>251.9990040344212</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -22547,28 +22547,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>36.14989389716659</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,25 +22671,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>1.027707413939339</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22802,10 +22802,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22841,7 +22841,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
@@ -22850,7 +22850,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>120.4592573625854</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22881,10 +22881,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22999,7 +22999,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23027,10 +23027,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23075,7 +23075,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23103,25 +23103,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>103.6517501748946</v>
+        <v>17.74777975671506</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,7 +23273,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>243.4585682375746</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23312,19 +23312,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>128.3496863841578</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -23391,10 +23391,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>189.2259749604124</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>191.3339842354306</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>212.9428526967576</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.77698026205269</v>
+        <v>10.67466947375905</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,10 +23574,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>53.77649520904681</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23592,7 +23592,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
@@ -23631,16 +23631,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>14.97806209615081</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852481</v>
       </c>
       <c r="I16" t="n">
-        <v>138.3446975387376</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>77.00293458298532</v>
       </c>
       <c r="S17" t="n">
-        <v>90.90453089404807</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>130.2018754590729</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23868,16 +23868,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>165.2832744570138</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>109.6390682700375</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,10 +23935,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>59.32005692394495</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>260.700537356553</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24014,13 +24014,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>80.10670267765622</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24048,25 +24048,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>114.2780852013212</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>38.07696096903303</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.1488427864826</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7266695472104</v>
+        <v>94.36490978627243</v>
       </c>
       <c r="H22" t="n">
         <v>159.8772180037952</v>
@@ -24178,13 +24178,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,19 +24206,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>250.5640488380473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>5.049560116541784</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>84.88486397941587</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>26.46205974607233</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>39.33204381001866</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.7266695472104</v>
@@ -24412,7 +24412,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,25 +24443,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>152.6215943577029</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>180.6097602333186</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24531,10 +24531,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>104.6391979828191</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24570,13 +24570,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>210.9701352361261</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.0422324862085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24661,10 +24661,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,16 +24680,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.17332123271856</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24725,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>121.7098872230291</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,19 +24765,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>144.3387687013251</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>71.36768015340439</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>21.57939819579937</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,10 +24883,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>59.32005692394495</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24965,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>155.5622668087879</v>
+        <v>126.9831511594642</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25008,13 +25008,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>74.36417929880868</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -25053,10 +25053,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>202.7107073159004</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25090,13 +25090,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>47.71221036235197</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.67247646141476</v>
+        <v>56.5522494385248</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,7 +25160,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25172,7 +25172,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>131.6968994311167</v>
+        <v>80.92505608793989</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -25208,13 +25208,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25239,7 +25239,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>94.77334447621367</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25248,7 +25248,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25287,19 +25287,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>202.7107073159004</v>
       </c>
     </row>
     <row r="37">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>136.7968536786435</v>
+        <v>66.97775089972799</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>165.4090611368575</v>
@@ -25397,19 +25397,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>1.1344737448091</v>
       </c>
       <c r="G38" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>44.897805205165</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>85.76514613766818</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25473,7 +25473,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25482,10 +25482,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>131.9836510635227</v>
       </c>
       <c r="H39" t="n">
-        <v>31.449615793047</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,16 +25527,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25609,10 +25609,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>186.7332506408623</v>
       </c>
       <c r="X40" t="n">
-        <v>186.7332506408622</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>183.9849956499339</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25640,7 @@
         <v>1.1344737448091</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>67.88002099628423</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25682,19 +25682,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.548598874839627</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,19 +25758,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>243.3485193021143</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>134.0822771319447</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
@@ -25837,7 +25837,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>68.56368370317318</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25865,22 +25865,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631583</v>
+        <v>314.2293427400715</v>
       </c>
       <c r="H44" t="n">
-        <v>260.7005373565526</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25941,19 +25941,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>36.17752366603303</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>110.0748838765141</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
@@ -25998,13 +25998,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26077,16 +26077,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>186.7332506408622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>585336.7722465487</v>
+        <v>585336.7722465484</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>585336.7722465488</v>
+        <v>585336.772246549</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>585336.7722465488</v>
+        <v>585336.7722465483</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>585336.7722465487</v>
+        <v>585336.7722465486</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>585336.7722465489</v>
+        <v>585336.7722465483</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>585336.7722465484</v>
+        <v>585336.7722465489</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>585336.7722465484</v>
+        <v>585336.7722465486</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>585336.7722465486</v>
+        <v>585336.7722465487</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="C2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="D2" t="n">
         <v>166160.6725313323</v>
@@ -26341,7 +26341,7 @@
         <v>213628.8970646064</v>
       </c>
       <c r="L2" t="n">
-        <v>213628.8970646065</v>
+        <v>213628.8970646064</v>
       </c>
       <c r="M2" t="n">
         <v>213628.8970646065</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244791</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52190.24361124207</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="C4" t="n">
-        <v>52190.24361124207</v>
+        <v>50385.00392753456</v>
       </c>
       <c r="D4" t="n">
-        <v>52190.24361124207</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="E4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="F4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="G4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="H4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="I4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="J4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="K4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="L4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="M4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="N4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="O4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="P4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15080.27137521914</v>
+        <v>-13275.0316915116</v>
       </c>
       <c r="C6" t="n">
-        <v>65689.16015632855</v>
+        <v>67494.39984003617</v>
       </c>
       <c r="D6" t="n">
-        <v>65689.16015632858</v>
+        <v>67494.39984003606</v>
       </c>
       <c r="E6" t="n">
-        <v>-34589.43453291649</v>
+        <v>-32746.11426247854</v>
       </c>
       <c r="F6" t="n">
-        <v>132350.7355923303</v>
+        <v>134194.0558627681</v>
       </c>
       <c r="G6" t="n">
-        <v>132350.7355923303</v>
+        <v>134194.0558627681</v>
       </c>
       <c r="H6" t="n">
-        <v>132350.7355923303</v>
+        <v>134194.0558627682</v>
       </c>
       <c r="I6" t="n">
-        <v>132350.7355923303</v>
+        <v>134194.0558627681</v>
       </c>
       <c r="J6" t="n">
-        <v>69290.79299322402</v>
+        <v>71134.11326366194</v>
       </c>
       <c r="K6" t="n">
-        <v>132350.7355923302</v>
+        <v>134194.0558627681</v>
       </c>
       <c r="L6" t="n">
-        <v>132350.7355923303</v>
+        <v>134194.0558627681</v>
       </c>
       <c r="M6" t="n">
-        <v>91300.0377298824</v>
+        <v>93143.35800032037</v>
       </c>
       <c r="N6" t="n">
-        <v>132350.7355923303</v>
+        <v>134194.0558627682</v>
       </c>
       <c r="O6" t="n">
-        <v>132350.7355923303</v>
+        <v>134194.0558627682</v>
       </c>
       <c r="P6" t="n">
-        <v>132350.7355923303</v>
+        <v>134194.0558627682</v>
       </c>
     </row>
   </sheetData>
@@ -26796,7 +26796,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
         <v>405.7415719969023</v>
@@ -26817,7 +26817,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="L4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="M4" t="n">
         <v>405.7415719969023</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31932,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31941,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32406,7 +32406,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32415,16 +32415,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,13 +34787,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35258,10 +35258,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35428,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N12" t="n">
-        <v>340.7791716323003</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680288</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
-        <v>87.03308673054592</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>369.5327107537265</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35902,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>302.3746655144174</v>
+        <v>124.8420549921029</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
-        <v>48.87891772828622</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
@@ -36218,7 +36218,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>124.8420549921026</v>
+        <v>259.1935575206327</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>141.3237492791392</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36683,7 +36683,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969024</v>
+        <v>369.5327107537267</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36923,10 +36923,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
-        <v>326.276269873291</v>
+        <v>179.7282553970212</v>
       </c>
       <c r="P30" t="n">
-        <v>60.02388433300664</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>110.3391532330937</v>
@@ -37148,16 +37148,16 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>19.83962944132484</v>
+        <v>87.03308673054603</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37166,7 +37166,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>87.03308673054569</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
@@ -37400,7 +37400,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.690655761624</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3391532330937</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K38" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726429</v>
       </c>
       <c r="L38" t="n">
         <v>274.8802469209098</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>170.3630375661004</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167934</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37789,7 +37789,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N41" t="n">
-        <v>313.0722467132383</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O41" t="n">
         <v>249.9811662707763</v>
@@ -37859,10 +37859,10 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>197.3722399636395</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
@@ -37871,13 +37871,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>179.7282553970212</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K44" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726429</v>
       </c>
       <c r="L44" t="n">
         <v>274.8802469209098</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>41.25328128569715</v>
+        <v>189.7466035210506</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>709942.9483030356</v>
+        <v>620030.7536337402</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680573.5606250049</v>
+        <v>680573.5606250047</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15081736.51669622</v>
+        <v>15081736.51669624</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.47961400380896</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>50.05769526855308</v>
+        <v>131.7659851933074</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.417475588902602</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>151.7201222818654</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023555</v>
+        <v>197.3801726732571</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.22376343510715</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>158.5123736899938</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7.203367682519206</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>91.10378467502353</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9364262421938</v>
+        <v>209.3943833582534</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1881446231729</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.71014592494659</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>45.5812354126099</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>45.58123541261014</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>92.71462625045356</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>69.31585159621655</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6773952840985317</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>102.2133755837552</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>208.7311438739628</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>110.1857468371295</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>262.1289214904143</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>10.05465009504015</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>106.3310523886623</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227270985277483</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I24" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>198.1468615877626</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>149.0504288138033</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>158.4955995708086</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>166.4440780709522</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H26" t="n">
-        <v>208.6695983693513</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>185.1817195550922</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>131.5202140654395</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I27" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S27" t="n">
         <v>162.3842949358346</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V27" t="n">
-        <v>31.7556621669136</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.571272790944</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>33.25816029277114</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>166.4440780709522</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H29" t="n">
-        <v>269.0932544659667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>174.4037110746249</v>
@@ -2842,10 +2842,10 @@
         <v>91.09422701486457</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>199.538399042215</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>72.38749818879991</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>24.05460355094004</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S30" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>198.1468615877626</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2961362709901</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>166.6709401365531</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>166.4440780709522</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>128.2652151292368</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2707998041555</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>149.6659410562747</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3110,16 +3110,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>65.53530220036551</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>162.3842949358346</v>
@@ -3164,16 +3164,16 @@
         <v>198.1468615877626</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>195.1190746913817</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>21.02303004802092</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>200.8294330837151</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>91.09422701486457</v>
       </c>
       <c r="S35" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.9999812970856</v>
@@ -3325,16 +3325,16 @@
         <v>251.2707998041555</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>329.9452716023328</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>268.3910989389555</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>115.272926722205</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>27.05582224354615</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3365,7 +3365,7 @@
         <v>107.4004677732277</v>
       </c>
       <c r="I36" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>105.8882751269784</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>12.49659271983031</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>211.595902047413</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2707998041555</v>
+        <v>77.56479556642266</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>107.4004677732277</v>
       </c>
       <c r="I39" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.139957102748</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>197.2249690519162</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.672767666411518</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>81.39373065389331</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>198.4766393150725</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H41" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>149.717174097259</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>55.668281488835</v>
       </c>
       <c r="G42" t="n">
-        <v>14.32800991146811</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9084462740043</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>166.6709401365531</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2961362709901</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>414.3670737191223</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>23.38210928091131</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>91.09422701486459</v>
       </c>
       <c r="S44" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>94.08749254022761</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,10 +4058,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>139.8761670017112</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I45" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>44.83719261675746</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.571272790944</v>
+        <v>151.6427230489192</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.9747555936682</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4445,16 +4445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>512.7568786610034</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>304.9965798960495</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.84447166430675</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="C6" t="n">
-        <v>69.84447166430675</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="D6" t="n">
         <v>19.28114311021272</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X6" t="n">
-        <v>277.6047704292607</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.84447166430675</v>
+        <v>152.3780978509273</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4749,28 +4749,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4843,13 +4843,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.8157010833278</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8157010833278</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D9" t="n">
-        <v>165.8157010833278</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4898,37 +4898,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>334.0310381033958</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>334.0310381033958</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W9" t="n">
-        <v>334.0310381033958</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X9" t="n">
-        <v>334.0310381033958</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y9" t="n">
-        <v>334.0310381033958</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="10">
@@ -4980,25 +4980,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546.7341079359765</v>
+        <v>500.4124063240799</v>
       </c>
       <c r="C11" t="n">
-        <v>546.7341079359765</v>
+        <v>500.4124063240799</v>
       </c>
       <c r="D11" t="n">
-        <v>301.0384945329112</v>
+        <v>500.4124063240799</v>
       </c>
       <c r="E11" t="n">
-        <v>301.0384945329112</v>
+        <v>500.4124063240799</v>
       </c>
       <c r="F11" t="n">
-        <v>301.0384945329112</v>
+        <v>221.4664328873572</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.908559541287</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>500.4124063240799</v>
       </c>
       <c r="V11" t="n">
-        <v>825.6800813726992</v>
+        <v>500.4124063240799</v>
       </c>
       <c r="W11" t="n">
-        <v>825.6800813726992</v>
+        <v>500.4124063240799</v>
       </c>
       <c r="X11" t="n">
-        <v>546.7341079359765</v>
+        <v>500.4124063240799</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.7341079359765</v>
+        <v>500.4124063240799</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.09252109618844</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618844</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618844</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618844</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K12" t="n">
-        <v>28.39914141318535</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>28.39914141318535</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>288.9361218459458</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N12" t="n">
-        <v>562.3310704112777</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945615</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P12" t="n">
         <v>1025.71200399185</v>
@@ -5144,28 +5144,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1095.309122046687</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1095.309122046687</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>1095.309122046687</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>1095.309122046687</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V12" t="n">
-        <v>860.1570138149448</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W12" t="n">
-        <v>605.9196570867432</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="X12" t="n">
-        <v>398.0681568812104</v>
+        <v>481.1418254340552</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.3078581162565</v>
+        <v>273.3815266691013</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F13" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N13" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>825.6800813726992</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C14" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D14" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E14" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F14" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G14" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J14" t="n">
         <v>22.09252109618843</v>
@@ -5284,16 +5284,16 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M14" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P14" t="n">
         <v>1099.465256491931</v>
@@ -5305,25 +5305,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S14" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T14" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939</v>
       </c>
       <c r="U14" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939</v>
       </c>
       <c r="V14" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="W14" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="X14" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y14" t="n">
-        <v>1104.626054809422</v>
+        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>196.5455503773155</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="C15" t="n">
-        <v>22.09252109618844</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="D15" t="n">
-        <v>22.09252109618844</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="E15" t="n">
-        <v>22.09252109618844</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F15" t="n">
-        <v>22.09252109618844</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="G15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K15" t="n">
         <v>159.4923828364511</v>
@@ -5366,43 +5366,43 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M15" t="n">
-        <v>679.0427979944841</v>
+        <v>679.0427979944839</v>
       </c>
       <c r="N15" t="n">
-        <v>679.0427979944841</v>
+        <v>952.4377465598157</v>
       </c>
       <c r="O15" t="n">
-        <v>828.8278839945615</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P15" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q15" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1008.180757940352</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S15" t="n">
-        <v>1008.180757940352</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T15" t="n">
-        <v>806.3008579684609</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="U15" t="n">
-        <v>578.0822456026086</v>
+        <v>796.6712798007015</v>
       </c>
       <c r="V15" t="n">
-        <v>578.0822456026086</v>
+        <v>561.5191715689589</v>
       </c>
       <c r="W15" t="n">
-        <v>364.7608873973835</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="X15" t="n">
-        <v>364.7608873973835</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="Y15" t="n">
-        <v>364.7608873973835</v>
+        <v>307.2818148407573</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N16" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O16" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R16" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.09252109618844</v>
+        <v>68.13417302811763</v>
       </c>
       <c r="C17" t="n">
-        <v>22.09252109618844</v>
+        <v>68.13417302811763</v>
       </c>
       <c r="D17" t="n">
-        <v>22.09252109618844</v>
+        <v>68.13417302811763</v>
       </c>
       <c r="E17" t="n">
-        <v>22.09252109618844</v>
+        <v>68.13417302811763</v>
       </c>
       <c r="F17" t="n">
-        <v>22.09252109618844</v>
+        <v>68.13417302811763</v>
       </c>
       <c r="G17" t="n">
-        <v>22.09252109618844</v>
+        <v>68.13417302811763</v>
       </c>
       <c r="H17" t="n">
-        <v>22.09252109618844</v>
+        <v>68.13417302811763</v>
       </c>
       <c r="I17" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618831</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412867</v>
       </c>
       <c r="M17" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823542</v>
+        <v>817.082927982354</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901061</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
       </c>
       <c r="Q17" t="n">
-        <v>1104.626054809422</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="R17" t="n">
-        <v>1058.584402877492</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="S17" t="n">
-        <v>1058.584402877492</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="T17" t="n">
-        <v>833.8575889684332</v>
+        <v>879.8992409003622</v>
       </c>
       <c r="U17" t="n">
-        <v>579.9844679696339</v>
+        <v>626.0261199015629</v>
       </c>
       <c r="V17" t="n">
-        <v>301.0384945329112</v>
+        <v>626.0261199015629</v>
       </c>
       <c r="W17" t="n">
-        <v>22.09252109618844</v>
+        <v>347.0801464648403</v>
       </c>
       <c r="X17" t="n">
-        <v>22.09252109618844</v>
+        <v>347.0801464648403</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.09252109618844</v>
+        <v>347.0801464648403</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>196.5455503773155</v>
+        <v>377.8765639865488</v>
       </c>
       <c r="C18" t="n">
-        <v>22.09252109618844</v>
+        <v>203.4235347054218</v>
       </c>
       <c r="D18" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="E18" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F18" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J18" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318533</v>
       </c>
       <c r="K18" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L18" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M18" t="n">
-        <v>562.3310704112777</v>
+        <v>634.3469862468013</v>
       </c>
       <c r="N18" t="n">
-        <v>562.3310704112777</v>
+        <v>907.7419348121331</v>
       </c>
       <c r="O18" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121331</v>
       </c>
       <c r="P18" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="Q18" t="n">
-        <v>1104.626054809422</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="R18" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S18" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T18" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="U18" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="V18" t="n">
-        <v>1034.610043096072</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="W18" t="n">
-        <v>780.3726863678703</v>
+        <v>753.9434012121496</v>
       </c>
       <c r="X18" t="n">
-        <v>572.5211861623375</v>
+        <v>546.0919010066168</v>
       </c>
       <c r="Y18" t="n">
-        <v>364.7608873973835</v>
+        <v>546.0919010066168</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N19" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O19" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R19" t="n">
-        <v>22.77675875689403</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S19" t="n">
-        <v>22.77675875689403</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T19" t="n">
-        <v>22.77675875689403</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U19" t="n">
-        <v>22.77675875689403</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="C20" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="D20" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="E20" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="F20" t="n">
-        <v>22.09252109618844</v>
+        <v>125.3383550191735</v>
       </c>
       <c r="G20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J20" t="n">
-        <v>22.09252109618845</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K20" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L20" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M20" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P20" t="n">
         <v>1099.465256491931</v>
@@ -5776,28 +5776,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S20" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T20" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="U20" t="n">
-        <v>858.9304414063566</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="V20" t="n">
-        <v>858.9304414063566</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="W20" t="n">
-        <v>579.9844679696339</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="X20" t="n">
-        <v>301.0384945329112</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="Y20" t="n">
-        <v>22.09252109618844</v>
+        <v>683.2303018926189</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>617.3516848454813</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C21" t="n">
-        <v>442.8986555643543</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D21" t="n">
-        <v>293.964245903103</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E21" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F21" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G21" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J21" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K21" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L21" t="n">
-        <v>411.954469746149</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M21" t="n">
-        <v>411.954469746149</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N21" t="n">
-        <v>562.3310704112777</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O21" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P21" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q21" t="n">
         <v>1104.626054809422</v>
@@ -5864,19 +5864,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U21" t="n">
-        <v>1104.626054809422</v>
+        <v>893.7865155427926</v>
       </c>
       <c r="V21" t="n">
-        <v>1104.626054809422</v>
+        <v>658.6344073110499</v>
       </c>
       <c r="W21" t="n">
-        <v>993.3273206305032</v>
+        <v>404.3970505828483</v>
       </c>
       <c r="X21" t="n">
-        <v>993.3273206305032</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="Y21" t="n">
-        <v>785.5670218655493</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L22" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M22" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N22" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O22" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S22" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>880.1625635623147</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="C23" t="n">
-        <v>880.1625635623147</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="D23" t="n">
-        <v>880.1625635623147</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="E23" t="n">
-        <v>880.1625635623147</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F23" t="n">
-        <v>469.1766587727072</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G23" t="n">
-        <v>50.62405905642203</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62405905642203</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I23" t="n">
         <v>40.46784683920976</v>
@@ -5992,10 +5992,10 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K23" t="n">
-        <v>328.1019626009681</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L23" t="n">
-        <v>654.3560310300138</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M23" t="n">
         <v>1033.983090059323</v>
@@ -6022,19 +6022,19 @@
         <v>1520.571292317503</v>
       </c>
       <c r="U23" t="n">
-        <v>1266.762403626436</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="V23" t="n">
-        <v>1266.762403626436</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="W23" t="n">
-        <v>1266.762403626436</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="X23" t="n">
-        <v>1266.762403626436</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="Y23" t="n">
-        <v>1266.762403626436</v>
+        <v>1520.571292317503</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>288.0395611595286</v>
+        <v>582.6472797973001</v>
       </c>
       <c r="C24" t="n">
-        <v>113.5865318784016</v>
+        <v>582.6472797973001</v>
       </c>
       <c r="D24" t="n">
-        <v>113.3569652266061</v>
+        <v>433.7128701360489</v>
       </c>
       <c r="E24" t="n">
-        <v>113.3569652266061</v>
+        <v>433.7128701360489</v>
       </c>
       <c r="F24" t="n">
-        <v>113.3569652266061</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G24" t="n">
-        <v>113.3569652266061</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H24" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I24" t="n">
         <v>40.46784683920976</v>
@@ -6080,10 +6080,10 @@
         <v>1075.431636934412</v>
       </c>
       <c r="N24" t="n">
-        <v>1548.854280129896</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O24" t="n">
-        <v>1890.732577526584</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P24" t="n">
         <v>1890.732577526584</v>
@@ -6092,28 +6092,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R24" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S24" t="n">
-        <v>1789.594856919893</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T24" t="n">
-        <v>1589.446511881749</v>
+        <v>1823.243996922344</v>
       </c>
       <c r="U24" t="n">
-        <v>1361.256162110028</v>
+        <v>1595.053647150622</v>
       </c>
       <c r="V24" t="n">
-        <v>1126.104053878285</v>
+        <v>1359.90153891888</v>
       </c>
       <c r="W24" t="n">
-        <v>871.8666971500834</v>
+        <v>1105.664182190678</v>
       </c>
       <c r="X24" t="n">
-        <v>664.0151969445506</v>
+        <v>897.8126819851452</v>
       </c>
       <c r="Y24" t="n">
-        <v>456.2548981795966</v>
+        <v>690.0523832201914</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C25" t="n">
-        <v>347.4543595601591</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D25" t="n">
-        <v>347.4543595601591</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E25" t="n">
-        <v>347.4543595601591</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F25" t="n">
-        <v>200.5644120622488</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G25" t="n">
-        <v>200.5644120622488</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H25" t="n">
         <v>40.46784683920976</v>
@@ -6183,16 +6183,16 @@
         <v>498.0103482609705</v>
       </c>
       <c r="V25" t="n">
-        <v>498.0103482609705</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W25" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y25" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1154.638799198469</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="C26" t="n">
-        <v>785.6762822580574</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="D26" t="n">
-        <v>427.4105836513069</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="E26" t="n">
-        <v>427.4105836513069</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F26" t="n">
-        <v>427.4105836513069</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G26" t="n">
-        <v>427.4105836513069</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H26" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I26" t="n">
         <v>40.46784683920976</v>
@@ -6229,13 +6229,13 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K26" t="n">
-        <v>328.1019626009681</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L26" t="n">
         <v>654.356031030014</v>
       </c>
       <c r="M26" t="n">
-        <v>1033.983090059324</v>
+        <v>1033.983090059323</v>
       </c>
       <c r="N26" t="n">
         <v>1405.120914245785</v>
@@ -6244,34 +6244,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P26" t="n">
-        <v>1933.252382068734</v>
+        <v>1933.252382068733</v>
       </c>
       <c r="Q26" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R26" t="n">
-        <v>1931.377971238403</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S26" t="n">
-        <v>1931.377971238403</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="T26" t="n">
-        <v>1931.377971238403</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="U26" t="n">
-        <v>1931.377971238403</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="V26" t="n">
-        <v>1931.377971238403</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="W26" t="n">
-        <v>1931.377971238403</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="X26" t="n">
-        <v>1931.377971238403</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="Y26" t="n">
-        <v>1541.238639262591</v>
+        <v>1256.606191409224</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>989.2268824712791</v>
+        <v>456.2548981795966</v>
       </c>
       <c r="C27" t="n">
-        <v>814.7738531901521</v>
+        <v>281.8018688984696</v>
       </c>
       <c r="D27" t="n">
-        <v>665.8394435289008</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="E27" t="n">
-        <v>506.6019885234452</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="F27" t="n">
-        <v>360.0674305503302</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="G27" t="n">
-        <v>221.8422862096645</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H27" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I27" t="n">
         <v>40.46784683920976</v>
@@ -6329,28 +6329,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R27" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S27" t="n">
-        <v>1859.367801621261</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T27" t="n">
-        <v>1859.367801621261</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U27" t="n">
-        <v>1859.367801621261</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="V27" t="n">
-        <v>1827.291375190035</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W27" t="n">
-        <v>1573.054018461834</v>
+        <v>871.8666971500834</v>
       </c>
       <c r="X27" t="n">
-        <v>1365.202518256301</v>
+        <v>664.0151969445506</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.442219491347</v>
+        <v>456.2548981795966</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>243.3258600550837</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C28" t="n">
-        <v>243.3258600550837</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D28" t="n">
-        <v>243.3258600550837</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E28" t="n">
-        <v>243.3258600550837</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F28" t="n">
-        <v>243.3258600550837</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G28" t="n">
-        <v>74.0619481450392</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H28" t="n">
         <v>40.46784683920976</v>
@@ -6417,19 +6417,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U28" t="n">
-        <v>498.0103482609705</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3258600550837</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W28" t="n">
-        <v>243.3258600550837</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X28" t="n">
-        <v>243.3258600550837</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y28" t="n">
-        <v>243.3258600550837</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>857.407096648906</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="C29" t="n">
-        <v>488.4445797084942</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="D29" t="n">
-        <v>488.4445797084942</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="E29" t="n">
-        <v>488.4445797084942</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="F29" t="n">
-        <v>488.4445797084942</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="G29" t="n">
-        <v>488.4445797084942</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H29" t="n">
         <v>216.6332115610531</v>
@@ -6466,13 +6466,13 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K29" t="n">
-        <v>328.1019626009682</v>
+        <v>328.1019626009681</v>
       </c>
       <c r="L29" t="n">
         <v>654.356031030014</v>
       </c>
       <c r="M29" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N29" t="n">
         <v>1405.120914245785</v>
@@ -6481,34 +6481,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P29" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q29" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R29" t="n">
-        <v>1931.377971238402</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="S29" t="n">
-        <v>1931.377971238402</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T29" t="n">
-        <v>1931.377971238402</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="U29" t="n">
-        <v>1931.377971238402</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="V29" t="n">
-        <v>1600.315083894832</v>
+        <v>1189.508404973932</v>
       </c>
       <c r="W29" t="n">
-        <v>1247.546428624718</v>
+        <v>836.739749703818</v>
       </c>
       <c r="X29" t="n">
-        <v>1247.546428624718</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="Y29" t="n">
-        <v>857.407096648906</v>
+        <v>635.1858112773382</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>288.0395611595286</v>
+        <v>620.2794385188238</v>
       </c>
       <c r="C30" t="n">
-        <v>113.5865318784016</v>
+        <v>445.8264092376968</v>
       </c>
       <c r="D30" t="n">
-        <v>40.46784683920976</v>
+        <v>296.8919995764455</v>
       </c>
       <c r="E30" t="n">
-        <v>40.46784683920976</v>
+        <v>137.65454457099</v>
       </c>
       <c r="F30" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="G30" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="H30" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I30" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J30" t="n">
-        <v>86.55375581100978</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="K30" t="n">
-        <v>291.9427578142076</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="L30" t="n">
-        <v>629.5180138714659</v>
+        <v>424.1290118682681</v>
       </c>
       <c r="M30" t="n">
-        <v>1075.431636934412</v>
+        <v>870.0426349312146</v>
       </c>
       <c r="N30" t="n">
-        <v>1548.854280129896</v>
+        <v>1343.465278126698</v>
       </c>
       <c r="O30" t="n">
-        <v>1613.447795097059</v>
+        <v>1710.138827778739</v>
       </c>
       <c r="P30" t="n">
-        <v>1890.732577526584</v>
+        <v>1987.423610208265</v>
       </c>
       <c r="Q30" t="n">
         <v>2023.392341960488</v>
@@ -6569,25 +6569,25 @@
         <v>1953.61939725912</v>
       </c>
       <c r="S30" t="n">
-        <v>1789.594856919893</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="T30" t="n">
-        <v>1589.446511881749</v>
+        <v>1753.471052220976</v>
       </c>
       <c r="U30" t="n">
-        <v>1361.256162110028</v>
+        <v>1525.280702449255</v>
       </c>
       <c r="V30" t="n">
-        <v>1126.104053878285</v>
+        <v>1290.128594217512</v>
       </c>
       <c r="W30" t="n">
-        <v>871.8666971500834</v>
+        <v>1035.89123748931</v>
       </c>
       <c r="X30" t="n">
-        <v>664.0151969445506</v>
+        <v>828.0397372837776</v>
       </c>
       <c r="Y30" t="n">
-        <v>456.2548981795966</v>
+        <v>620.2794385188238</v>
       </c>
     </row>
     <row r="31">
@@ -6654,13 +6654,13 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U31" t="n">
-        <v>208.822331825627</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V31" t="n">
-        <v>40.46784683920976</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W31" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="X31" t="n">
         <v>40.46784683920976</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>784.5217980442045</v>
+        <v>918.8204105871737</v>
       </c>
       <c r="C32" t="n">
-        <v>784.5217980442045</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="D32" t="n">
-        <v>426.256099437454</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="E32" t="n">
-        <v>40.46784683920976</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="F32" t="n">
-        <v>40.46784683920976</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="G32" t="n">
-        <v>40.46784683920976</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="H32" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I32" t="n">
         <v>40.46784683920976</v>
@@ -6703,7 +6703,7 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K32" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009681</v>
       </c>
       <c r="L32" t="n">
         <v>654.3560310300138</v>
@@ -6724,28 +6724,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R32" t="n">
-        <v>1931.377971238402</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S32" t="n">
-        <v>1741.783394637791</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T32" t="n">
-        <v>1520.571292317503</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U32" t="n">
-        <v>1266.762403626436</v>
+        <v>1769.583453269422</v>
       </c>
       <c r="V32" t="n">
-        <v>935.6995162828658</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="W32" t="n">
-        <v>784.5217980442045</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="X32" t="n">
-        <v>784.5217980442045</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="Y32" t="n">
-        <v>784.5217980442045</v>
+        <v>1048.381233950039</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>288.0395611595286</v>
+        <v>851.0017381306133</v>
       </c>
       <c r="C33" t="n">
-        <v>221.8422862096645</v>
+        <v>676.5487088494863</v>
       </c>
       <c r="D33" t="n">
-        <v>221.8422862096645</v>
+        <v>527.614299188235</v>
       </c>
       <c r="E33" t="n">
-        <v>221.8422862096645</v>
+        <v>368.3768441827795</v>
       </c>
       <c r="F33" t="n">
         <v>221.8422862096645</v>
@@ -6779,13 +6779,13 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J33" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="K33" t="n">
-        <v>245.8568488424076</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L33" t="n">
-        <v>583.4321048996659</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M33" t="n">
         <v>773.3516022495343</v>
@@ -6803,28 +6803,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R33" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S33" t="n">
-        <v>1789.594856919893</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T33" t="n">
-        <v>1589.446511881749</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U33" t="n">
-        <v>1361.256162110028</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="V33" t="n">
-        <v>1126.104053878285</v>
+        <v>1424.067348351374</v>
       </c>
       <c r="W33" t="n">
-        <v>871.8666971500834</v>
+        <v>1226.977373915635</v>
       </c>
       <c r="X33" t="n">
-        <v>664.0151969445506</v>
+        <v>1226.977373915635</v>
       </c>
       <c r="Y33" t="n">
-        <v>456.2548981795966</v>
+        <v>1019.217075150681</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C34" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D34" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E34" t="n">
-        <v>187.3577943371201</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F34" t="n">
         <v>40.46784683920976</v>
@@ -6894,16 +6894,16 @@
         <v>498.0103482609705</v>
       </c>
       <c r="V34" t="n">
-        <v>498.0103482609705</v>
+        <v>243.3258600550837</v>
       </c>
       <c r="W34" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X34" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>602.4214641592973</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="C35" t="n">
-        <v>602.4214641592973</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="D35" t="n">
-        <v>602.4214641592973</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="E35" t="n">
-        <v>216.6332115610531</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="F35" t="n">
-        <v>216.6332115610531</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G35" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H35" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I35" t="n">
         <v>40.46784683920976</v>
@@ -6940,13 +6940,13 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K35" t="n">
-        <v>328.1019626009682</v>
+        <v>328.1019626009681</v>
       </c>
       <c r="L35" t="n">
         <v>654.356031030014</v>
       </c>
       <c r="M35" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N35" t="n">
         <v>1405.120914245785</v>
@@ -6955,34 +6955,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P35" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q35" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R35" t="n">
-        <v>1931.377971238402</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="S35" t="n">
-        <v>1741.783394637791</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="T35" t="n">
-        <v>1520.571292317503</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="U35" t="n">
-        <v>1266.762403626436</v>
+        <v>1456.356980227048</v>
       </c>
       <c r="V35" t="n">
-        <v>935.6995162828658</v>
+        <v>1456.356980227048</v>
       </c>
       <c r="W35" t="n">
-        <v>602.4214641592973</v>
+        <v>1103.588324956934</v>
       </c>
       <c r="X35" t="n">
-        <v>602.4214641592973</v>
+        <v>730.1225666958539</v>
       </c>
       <c r="Y35" t="n">
-        <v>602.4214641592973</v>
+        <v>459.0204465554949</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.2268824712791</v>
+        <v>620.2794385188238</v>
       </c>
       <c r="C36" t="n">
-        <v>814.7738531901521</v>
+        <v>620.2794385188238</v>
       </c>
       <c r="D36" t="n">
-        <v>665.8394435289008</v>
+        <v>592.9503251415044</v>
       </c>
       <c r="E36" t="n">
-        <v>506.6019885234452</v>
+        <v>433.7128701360489</v>
       </c>
       <c r="F36" t="n">
-        <v>360.0674305503302</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.8422862096645</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H36" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I36" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J36" t="n">
-        <v>86.55375581100978</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="K36" t="n">
         <v>291.9427578142076</v>
@@ -7028,40 +7028,40 @@
         <v>1075.431636934412</v>
       </c>
       <c r="N36" t="n">
-        <v>1548.854280129896</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O36" t="n">
-        <v>1890.732577526584</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P36" t="n">
-        <v>1890.732577526584</v>
+        <v>1890.732577526585</v>
       </c>
       <c r="Q36" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R36" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S36" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="T36" t="n">
-        <v>1823.243996922344</v>
+        <v>1753.471052220976</v>
       </c>
       <c r="U36" t="n">
-        <v>1595.053647150622</v>
+        <v>1525.280702449255</v>
       </c>
       <c r="V36" t="n">
-        <v>1359.90153891888</v>
+        <v>1290.128594217512</v>
       </c>
       <c r="W36" t="n">
-        <v>1105.664182190678</v>
+        <v>1035.89123748931</v>
       </c>
       <c r="X36" t="n">
-        <v>1105.664182190678</v>
+        <v>828.0397372837776</v>
       </c>
       <c r="Y36" t="n">
-        <v>1105.664182190678</v>
+        <v>620.2794385188238</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1841.743877130248</v>
+        <v>485.387527331849</v>
       </c>
       <c r="C37" t="n">
-        <v>1672.807694202341</v>
+        <v>485.387527331849</v>
       </c>
       <c r="D37" t="n">
-        <v>1565.849840538727</v>
+        <v>335.2708879195133</v>
       </c>
       <c r="E37" t="n">
-        <v>1565.849840538727</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="F37" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G37" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H37" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I37" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J37" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K37" t="n">
-        <v>1592.077693026647</v>
+        <v>66.69569932712994</v>
       </c>
       <c r="L37" t="n">
-        <v>1681.166748880583</v>
+        <v>155.784755181066</v>
       </c>
       <c r="M37" t="n">
-        <v>1785.487790165714</v>
+        <v>260.1057964661965</v>
       </c>
       <c r="N37" t="n">
-        <v>1892.762926679929</v>
+        <v>367.3809329804119</v>
       </c>
       <c r="O37" t="n">
-        <v>1975.8325827203</v>
+        <v>450.4505890207823</v>
       </c>
       <c r="P37" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="Q37" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="R37" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="S37" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="T37" t="n">
-        <v>2023.392341960488</v>
+        <v>485.387527331849</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.392341960488</v>
+        <v>485.387527331849</v>
       </c>
       <c r="V37" t="n">
-        <v>2023.392341960488</v>
+        <v>485.387527331849</v>
       </c>
       <c r="W37" t="n">
-        <v>2023.392341960488</v>
+        <v>485.387527331849</v>
       </c>
       <c r="X37" t="n">
-        <v>2023.392341960488</v>
+        <v>485.387527331849</v>
       </c>
       <c r="Y37" t="n">
-        <v>2023.392341960488</v>
+        <v>485.387527331849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1005.97836303253</v>
+        <v>837.2420042270616</v>
       </c>
       <c r="C38" t="n">
-        <v>1005.97836303253</v>
+        <v>837.2420042270616</v>
       </c>
       <c r="D38" t="n">
-        <v>1005.97836303253</v>
+        <v>837.2420042270616</v>
       </c>
       <c r="E38" t="n">
-        <v>1005.97836303253</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="F38" t="n">
-        <v>792.2451286412038</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G38" t="n">
-        <v>373.6925289249186</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H38" t="n">
         <v>40.46784683920976</v>
@@ -7177,10 +7177,10 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K38" t="n">
-        <v>328.1019626009681</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L38" t="n">
-        <v>654.3560310300138</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M38" t="n">
         <v>1033.983090059323</v>
@@ -7207,19 +7207,19 @@
         <v>2023.392341960488</v>
       </c>
       <c r="U38" t="n">
-        <v>1769.583453269422</v>
+        <v>1945.044063610566</v>
       </c>
       <c r="V38" t="n">
-        <v>1769.583453269422</v>
+        <v>1613.981176266995</v>
       </c>
       <c r="W38" t="n">
-        <v>1769.583453269422</v>
+        <v>1613.981176266995</v>
       </c>
       <c r="X38" t="n">
-        <v>1396.117695008342</v>
+        <v>1613.981176266995</v>
       </c>
       <c r="Y38" t="n">
-        <v>1005.97836303253</v>
+        <v>1223.841844291183</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>989.2268824712791</v>
+        <v>916.3377640838827</v>
       </c>
       <c r="C39" t="n">
-        <v>814.7738531901521</v>
+        <v>741.8847348027557</v>
       </c>
       <c r="D39" t="n">
-        <v>665.8394435289008</v>
+        <v>592.9503251415044</v>
       </c>
       <c r="E39" t="n">
-        <v>506.6019885234452</v>
+        <v>433.7128701360489</v>
       </c>
       <c r="F39" t="n">
-        <v>360.0674305503302</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.8422862096645</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H39" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I39" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J39" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="K39" t="n">
-        <v>122.5224875632326</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L39" t="n">
-        <v>460.0977436204909</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M39" t="n">
-        <v>906.0113666834374</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N39" t="n">
-        <v>1379.434009878921</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O39" t="n">
-        <v>1746.107559530962</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P39" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526584</v>
       </c>
       <c r="Q39" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R39" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S39" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="T39" t="n">
-        <v>1827.291375190035</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="U39" t="n">
-        <v>1827.291375190035</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="V39" t="n">
-        <v>1827.291375190035</v>
+        <v>1754.402256802639</v>
       </c>
       <c r="W39" t="n">
-        <v>1573.054018461834</v>
+        <v>1500.164900074437</v>
       </c>
       <c r="X39" t="n">
-        <v>1365.202518256301</v>
+        <v>1292.313399868905</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.442219491347</v>
+        <v>1084.553101103951</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1565.849840538727</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="C40" t="n">
-        <v>1565.849840538727</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="D40" t="n">
-        <v>1565.849840538727</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="E40" t="n">
-        <v>1565.849840538727</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="F40" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G40" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H40" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I40" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J40" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K40" t="n">
-        <v>1592.077693026647</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L40" t="n">
-        <v>1681.166748880583</v>
+        <v>155.7847551810659</v>
       </c>
       <c r="M40" t="n">
-        <v>1785.487790165714</v>
+        <v>260.1057964661965</v>
       </c>
       <c r="N40" t="n">
-        <v>1892.762926679929</v>
+        <v>367.3809329804118</v>
       </c>
       <c r="O40" t="n">
-        <v>1975.8325827203</v>
+        <v>450.4505890207823</v>
       </c>
       <c r="P40" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="Q40" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="R40" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="S40" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="T40" t="n">
-        <v>2023.392341960488</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="U40" t="n">
-        <v>2023.392341960488</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="V40" t="n">
-        <v>2023.392341960488</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="W40" t="n">
-        <v>2023.392341960488</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="X40" t="n">
-        <v>1795.40279106247</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="Y40" t="n">
-        <v>1574.61021191894</v>
+        <v>269.5736838865073</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>742.6550458653303</v>
+        <v>1246.653169920554</v>
       </c>
       <c r="C41" t="n">
-        <v>373.6925289249186</v>
+        <v>1246.653169920554</v>
       </c>
       <c r="D41" t="n">
-        <v>373.6925289249186</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="E41" t="n">
-        <v>373.6925289249186</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="F41" t="n">
-        <v>373.6925289249186</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="G41" t="n">
-        <v>373.6925289249186</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H41" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I41" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J41" t="n">
-        <v>107.2572125339111</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K41" t="n">
-        <v>328.1019626009681</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L41" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M41" t="n">
-        <v>1033.983090059324</v>
+        <v>1033.983090059323</v>
       </c>
       <c r="N41" t="n">
         <v>1405.120914245785</v>
@@ -7429,7 +7429,7 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P41" t="n">
-        <v>1933.252382068734</v>
+        <v>1933.252382068733</v>
       </c>
       <c r="Q41" t="n">
         <v>2023.392341960488</v>
@@ -7444,19 +7444,19 @@
         <v>2023.392341960488</v>
       </c>
       <c r="U41" t="n">
-        <v>1872.162873175378</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="V41" t="n">
-        <v>1872.162873175378</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="W41" t="n">
-        <v>1519.394217905264</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="X41" t="n">
-        <v>1519.394217905264</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Y41" t="n">
-        <v>1129.254885929452</v>
+        <v>1633.253009984676</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>756.9891544318662</v>
+        <v>652.2124465368995</v>
       </c>
       <c r="C42" t="n">
-        <v>582.5361251507392</v>
+        <v>477.7594172557725</v>
       </c>
       <c r="D42" t="n">
-        <v>433.6017154894879</v>
+        <v>328.8250075945213</v>
       </c>
       <c r="E42" t="n">
-        <v>274.3642604840324</v>
+        <v>169.5875525890658</v>
       </c>
       <c r="F42" t="n">
-        <v>127.8297025109174</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="G42" t="n">
         <v>113.3569652266061</v>
@@ -7493,49 +7493,49 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K42" t="n">
-        <v>122.522487563233</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L42" t="n">
-        <v>460.0977436204913</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0113666834378</v>
+        <v>823.9567259594146</v>
       </c>
       <c r="N42" t="n">
-        <v>1379.434009878921</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O42" t="n">
-        <v>1746.107559530963</v>
+        <v>1664.052918806939</v>
       </c>
       <c r="P42" t="n">
-        <v>2023.392341960488</v>
+        <v>1941.337701236465</v>
       </c>
       <c r="Q42" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R42" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S42" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="T42" t="n">
-        <v>1823.243996922344</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="U42" t="n">
-        <v>1595.053647150623</v>
+        <v>1725.429047487399</v>
       </c>
       <c r="V42" t="n">
-        <v>1595.053647150623</v>
+        <v>1490.276939255656</v>
       </c>
       <c r="W42" t="n">
-        <v>1340.816290422421</v>
+        <v>1236.039582527454</v>
       </c>
       <c r="X42" t="n">
-        <v>1132.964790216888</v>
+        <v>1028.188082321921</v>
       </c>
       <c r="Y42" t="n">
-        <v>925.2044914519342</v>
+        <v>820.4277835569676</v>
       </c>
     </row>
     <row r="43">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.822331825627</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C43" t="n">
         <v>40.46784683920976</v>
@@ -7572,16 +7572,16 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K43" t="n">
-        <v>66.69569932712994</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L43" t="n">
-        <v>155.784755181066</v>
+        <v>155.7847551810659</v>
       </c>
       <c r="M43" t="n">
         <v>260.1057964661965</v>
       </c>
       <c r="N43" t="n">
-        <v>367.3809329804119</v>
+        <v>367.3809329804118</v>
       </c>
       <c r="O43" t="n">
         <v>450.4505890207823</v>
@@ -7602,19 +7602,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U43" t="n">
-        <v>208.822331825627</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V43" t="n">
-        <v>208.822331825627</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W43" t="n">
-        <v>208.822331825627</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X43" t="n">
-        <v>208.822331825627</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.822331825627</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>870.0063513451025</v>
+        <v>1226.849325633752</v>
       </c>
       <c r="C44" t="n">
-        <v>870.0063513451025</v>
+        <v>1226.849325633752</v>
       </c>
       <c r="D44" t="n">
-        <v>870.0063513451025</v>
+        <v>1226.849325633752</v>
       </c>
       <c r="E44" t="n">
-        <v>870.0063513451025</v>
+        <v>1226.849325633752</v>
       </c>
       <c r="F44" t="n">
-        <v>459.0204465554949</v>
+        <v>815.8634208441445</v>
       </c>
       <c r="G44" t="n">
-        <v>40.46784683920976</v>
+        <v>397.3108211278593</v>
       </c>
       <c r="H44" t="n">
-        <v>40.46784683920976</v>
+        <v>64.08613904215048</v>
       </c>
       <c r="I44" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J44" t="n">
-        <v>107.2572125339111</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K44" t="n">
-        <v>328.1019626009682</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L44" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M44" t="n">
         <v>1033.983090059323</v>
@@ -7675,25 +7675,25 @@
         <v>1931.377971238402</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.783394637791</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T44" t="n">
-        <v>1741.783394637791</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="U44" t="n">
-        <v>1741.783394637791</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="V44" t="n">
-        <v>1646.745523385036</v>
+        <v>1600.315083894832</v>
       </c>
       <c r="W44" t="n">
-        <v>1646.745523385036</v>
+        <v>1600.315083894832</v>
       </c>
       <c r="X44" t="n">
-        <v>1646.745523385036</v>
+        <v>1226.849325633752</v>
       </c>
       <c r="Y44" t="n">
-        <v>1256.606191409224</v>
+        <v>1226.849325633752</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>814.7738531901521</v>
+        <v>770.4672676594516</v>
       </c>
       <c r="C45" t="n">
-        <v>814.7738531901521</v>
+        <v>596.0142383783246</v>
       </c>
       <c r="D45" t="n">
-        <v>665.8394435289008</v>
+        <v>454.7251808008386</v>
       </c>
       <c r="E45" t="n">
-        <v>506.6019885234452</v>
+        <v>295.4877257953831</v>
       </c>
       <c r="F45" t="n">
-        <v>360.0674305503302</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="G45" t="n">
-        <v>221.8422862096645</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H45" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I45" t="n">
         <v>40.46784683920976</v>
@@ -7730,22 +7730,22 @@
         <v>86.55375581100978</v>
       </c>
       <c r="K45" t="n">
-        <v>122.5224875632326</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L45" t="n">
-        <v>460.0977436204909</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M45" t="n">
-        <v>906.0113666834374</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N45" t="n">
-        <v>1379.434009878921</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O45" t="n">
-        <v>1746.107559530962</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P45" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526584</v>
       </c>
       <c r="Q45" t="n">
         <v>2023.392341960488</v>
@@ -7754,25 +7754,25 @@
         <v>1953.61939725912</v>
       </c>
       <c r="S45" t="n">
-        <v>1953.61939725912</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T45" t="n">
-        <v>1953.61939725912</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U45" t="n">
-        <v>1725.429047487399</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="V45" t="n">
-        <v>1490.276939255656</v>
+        <v>1354.294403650006</v>
       </c>
       <c r="W45" t="n">
-        <v>1236.039582527454</v>
+        <v>1354.294403650006</v>
       </c>
       <c r="X45" t="n">
-        <v>1190.749488975174</v>
+        <v>1146.442903444474</v>
       </c>
       <c r="Y45" t="n">
-        <v>982.9891902102202</v>
+        <v>938.6826046795197</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1882.003699946682</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="C46" t="n">
-        <v>1882.003699946682</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="D46" t="n">
-        <v>1882.003699946682</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="E46" t="n">
-        <v>1882.003699946682</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="F46" t="n">
-        <v>1735.113752448771</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="G46" t="n">
-        <v>1565.849840538727</v>
+        <v>344.8358805347895</v>
       </c>
       <c r="H46" t="n">
-        <v>1565.849840538727</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="I46" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J46" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K46" t="n">
-        <v>1592.077693026647</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L46" t="n">
-        <v>1681.166748880583</v>
+        <v>155.7847551810659</v>
       </c>
       <c r="M46" t="n">
-        <v>1785.487790165714</v>
+        <v>260.1057964661965</v>
       </c>
       <c r="N46" t="n">
-        <v>1892.762926679929</v>
+        <v>367.3809329804118</v>
       </c>
       <c r="O46" t="n">
-        <v>1975.8325827203</v>
+        <v>450.4505890207823</v>
       </c>
       <c r="P46" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="Q46" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="R46" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="S46" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="T46" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.003699946682</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V46" t="n">
-        <v>1882.003699946682</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W46" t="n">
-        <v>1882.003699946682</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="X46" t="n">
-        <v>1882.003699946682</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="Y46" t="n">
-        <v>1882.003699946682</v>
+        <v>498.0103482609705</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>386.2161139338934</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273546</v>
+        <v>263.6455160524018</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9017,16 +9017,16 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N15" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O15" t="n">
-        <v>275.9716853542988</v>
+        <v>278.399182576045</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>281.3133266100198</v>
+        <v>347.6863523863095</v>
       </c>
       <c r="N18" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N21" t="n">
-        <v>263.6455160524019</v>
+        <v>212.3582274761389</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>174.21102617701</v>
       </c>
       <c r="O24" t="n">
-        <v>368.8166099278884</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>38.37712982223464</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.9610011602126</v>
+        <v>158.9610011602124</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>88.73097111018598</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>112.4095779563746</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>79.53961213657041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>207.1251387872948</v>
+        <v>160.5737155834564</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10676,13 +10676,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>174.21102617701</v>
       </c>
       <c r="O36" t="n">
-        <v>368.8166099278884</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>38.37712982223464</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>79.53961213657041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>139.885074104321</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>174.21102617701</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.0775256814014</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K42" t="n">
-        <v>139.8850741043215</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.0775256814014</v>
+        <v>158.9610011602124</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>93.33365090048261</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>174.21102617701</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.0775256814014</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>56.86390315940167</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22685,7 +22685,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>164.936795482178</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22868,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>97.38737029608566</v>
+        <v>15.67908037133134</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23083,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.2910233994131</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>74.22125979910939</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>111.4443843516483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>217.7817758540624</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.25708046527242</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
@@ -23393,16 +23393,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>47.26061151348367</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>138.217680340412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
         <v>161.6656840978772</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115931</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>122.0342345019729</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.1619485273195</v>
       </c>
       <c r="H14" t="n">
-        <v>61.87643319194535</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I14" t="n">
         <v>205.0481221176458</v>
@@ -23545,16 +23545,16 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>236.6484737951114</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,16 +23627,16 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>16.54204288394044</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>40.50683853774675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7238167216226</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.9278262653587</v>
@@ -23679,7 +23679,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S16" t="n">
-        <v>47.78481791206872</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T16" t="n">
         <v>227.6757534850358</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611252</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23752,7 +23752,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I17" t="n">
-        <v>205.0481221176458</v>
+        <v>159.4668867050359</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>95.44404627266914</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S17" t="n">
         <v>205.8118405263978</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>73.08445501505753</v>
+        <v>73.08445501505764</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>54.73043931418519</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23831,7 +23831,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037955</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>170.2839726213331</v>
@@ -23870,7 +23870,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
-        <v>163.4847355532087</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23916,7 +23916,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K19" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S19" t="n">
         <v>222.9160118599466</v>
@@ -23949,10 +23949,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V19" t="n">
-        <v>251.4602480397295</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G20" t="n">
-        <v>415.1619485273195</v>
+        <v>312.9485729435643</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>205.8118405263978</v>
@@ -24025,19 +24025,19 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
-        <v>8.095732519776618</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W20" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24065,10 +24065,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.48084390037955</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
         <v>170.2839726213331</v>
@@ -24104,19 +24104,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9364262421938</v>
+        <v>17.205282368231</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>141.5092363237901</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24153,7 +24153,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K22" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S22" t="n">
-        <v>47.78481791206875</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T22" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715794</v>
       </c>
       <c r="U22" t="n">
         <v>286.3155846423218</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>92.5541201302687</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>329.8924352648517</v>
       </c>
       <c r="I23" t="n">
-        <v>164.3490609795847</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>60.20213126120504</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.2177945793613</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>18.19639228482453</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.571272790944</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I25" t="n">
         <v>142.8287537878153</v>
@@ -24423,10 +24423,10 @@
         <v>286.2961362709901</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>85.69356525287583</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>121.2228368955004</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S26" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.9999812970856</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2707998041555</v>
+        <v>66.08908024906327</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>15.92485149919924</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>201.0449249825117</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H28" t="n">
-        <v>125.2374392780375</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I28" t="n">
         <v>142.8287537878153</v>
@@ -24657,13 +24657,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2961362709901</v>
+        <v>119.8520582000379</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>60.799180798885</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2707998041555</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>170.192701636254</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>75.05756737583884</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>121.0146088424438</v>
       </c>
       <c r="G30" t="n">
         <v>136.8428928972591</v>
@@ -24779,7 +24779,7 @@
         <v>107.4004677732277</v>
       </c>
       <c r="I30" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V31" t="n">
-        <v>85.4667031872749</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>59.26557731808498</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>254.4686265342438</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,10 +24934,10 @@
         <v>414.3670737191223</v>
       </c>
       <c r="H32" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>199.5750276611383</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,16 +24998,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>107.1731967879502</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.8428928972591</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>56.57590846953789</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>125.4109325985482</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.571272790944</v>
@@ -25134,10 +25134,10 @@
         <v>286.2961362709901</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>85.69356525287586</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>329.8924352648517</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>19.2956971150802</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>117.8468397170981</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>51.26025692766234</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>120.3892433210926</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>162.3842949358346</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>42.727197891234</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.571272790944</v>
@@ -25365,7 +25365,7 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T37" t="n">
-        <v>226.1522977307185</v>
+        <v>213.6557050108882</v>
       </c>
       <c r="U37" t="n">
         <v>286.2961362709901</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>195.2801436942984</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I38" t="n">
         <v>174.4037110746249</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>91.09422701486457</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S38" t="n">
         <v>187.6986308346051</v>
@@ -25447,16 +25447,16 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>173.7060042377328</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>162.3842949358346</v>
       </c>
       <c r="T39" t="n">
-        <v>4.006904485014616</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U39" t="n">
         <v>225.9084462740043</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>35.57561809750905</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.1592125155258</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>65.04023199267586</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.571272790944</v>
@@ -25572,7 +25572,7 @@
         <v>142.8287537878153</v>
       </c>
       <c r="J40" t="n">
-        <v>63.68592579338138</v>
+        <v>63.68592579338139</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T40" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2961362709901</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>156.2064023056104</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I41" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>91.09422701486457</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S41" t="n">
         <v>187.6986308346051</v>
@@ -25684,13 +25684,13 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U41" t="n">
-        <v>101.5536257068964</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>89.40093090454889</v>
       </c>
       <c r="G42" t="n">
-        <v>122.514882985791</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H42" t="n">
         <v>107.4004677732277</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>162.3842949358346</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5758809620747343</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25809,7 +25809,7 @@
         <v>142.8287537878153</v>
       </c>
       <c r="J43" t="n">
-        <v>63.68592579338138</v>
+        <v>63.68592579338139</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>85.69356525287589</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>174.4037110746249</v>
+        <v>151.0216017937135</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T44" t="n">
         <v>218.9999812970856</v>
@@ -25924,16 +25924,16 @@
         <v>251.2707998041555</v>
       </c>
       <c r="V44" t="n">
-        <v>233.6647659299073</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>7.568898562927558</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>160.93579258672</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15.92854974202487</v>
       </c>
       <c r="H46" t="n">
-        <v>158.4955995708086</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>142.8287537878153</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>63.68592579338139</v>
@@ -26079,7 +26079,7 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U46" t="n">
-        <v>146.3213806773219</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465607.1527581617</v>
+        <v>465607.1527581619</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465607.1527581619</v>
+        <v>465607.1527581618</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493310.5173294218</v>
+        <v>493310.5173294217</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>493310.5173294217</v>
+        <v>493310.5173294218</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493310.517329422</v>
+        <v>493310.5173294217</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656421.6275990097</v>
+        <v>656421.6275990095</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656421.6275990095</v>
+        <v>656421.6275990094</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656421.6275990097</v>
+        <v>656421.6275990098</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656421.6275990094</v>
+        <v>656421.6275990095</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656421.6275990097</v>
+        <v>656421.6275990095</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656421.6275990097</v>
+        <v>656421.6275990095</v>
       </c>
     </row>
   </sheetData>
@@ -26331,16 +26331,16 @@
         <v>177181.8331056511</v>
       </c>
       <c r="H2" t="n">
-        <v>177181.8331056511</v>
+        <v>177181.833105651</v>
       </c>
       <c r="I2" t="n">
         <v>241782.0775782848</v>
       </c>
       <c r="J2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="K2" t="n">
-        <v>241782.0775782848</v>
+        <v>241782.0775782849</v>
       </c>
       <c r="L2" t="n">
         <v>241782.0775782848</v>
@@ -26349,13 +26349,13 @@
         <v>241782.0775782848</v>
       </c>
       <c r="N2" t="n">
-        <v>241782.0775782848</v>
+        <v>241782.0775782847</v>
       </c>
       <c r="O2" t="n">
         <v>241782.0775782848</v>
       </c>
       <c r="P2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923565</v>
+        <v>38628.88112923561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>209917.1901890307</v>
+        <v>209917.1901890308</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910624</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213641</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="C4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="E4" t="n">
         <v>50562.47198319522</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="G5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="H5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="I5" t="n">
         <v>35829.43444762749</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13275.03169151158</v>
+        <v>-25493.04231155208</v>
       </c>
       <c r="C6" t="n">
-        <v>67494.39984003615</v>
+        <v>55276.38921999565</v>
       </c>
       <c r="D6" t="n">
-        <v>67494.39984003612</v>
+        <v>55276.38921999571</v>
       </c>
       <c r="E6" t="n">
-        <v>70436.70047644005</v>
+        <v>58769.74788511555</v>
       </c>
       <c r="F6" t="n">
-        <v>109065.5816056757</v>
+        <v>97398.62901435122</v>
       </c>
       <c r="G6" t="n">
-        <v>109065.5816056758</v>
+        <v>97398.62901435119</v>
       </c>
       <c r="H6" t="n">
-        <v>109065.5816056758</v>
+        <v>97398.6290143511</v>
       </c>
       <c r="I6" t="n">
-        <v>-56314.15920930529</v>
+        <v>-64751.09957699819</v>
       </c>
       <c r="J6" t="n">
-        <v>90543.08838061917</v>
+        <v>82106.14801292637</v>
       </c>
       <c r="K6" t="n">
-        <v>153603.0309797254</v>
+        <v>145166.0906120327</v>
       </c>
       <c r="L6" t="n">
-        <v>153603.0309797254</v>
+        <v>145166.0906120326</v>
       </c>
       <c r="M6" t="n">
-        <v>144845.4479845118</v>
+        <v>136408.507616819</v>
       </c>
       <c r="N6" t="n">
-        <v>153603.0309797254</v>
+        <v>145166.0906120325</v>
       </c>
       <c r="O6" t="n">
-        <v>153603.0309797254</v>
+        <v>145166.0906120327</v>
       </c>
       <c r="P6" t="n">
-        <v>153603.0309797254</v>
+        <v>145166.0906120326</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912537</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912535</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="I3" t="n">
         <v>232.7463692581684</v>
@@ -26773,10 +26773,10 @@
         <v>232.7463692581684</v>
       </c>
       <c r="N3" t="n">
-        <v>232.7463692581684</v>
+        <v>232.7463692581683</v>
       </c>
       <c r="O3" t="n">
-        <v>232.7463692581684</v>
+        <v>232.7463692581683</v>
       </c>
       <c r="P3" t="n">
         <v>232.7463692581683</v>
@@ -26798,37 +26798,37 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I4" t="n">
         <v>505.8480854901219</v>
       </c>
       <c r="J4" t="n">
+        <v>505.8480854901219</v>
+      </c>
+      <c r="K4" t="n">
         <v>505.848085490122</v>
-      </c>
-      <c r="K4" t="n">
-        <v>505.8480854901219</v>
       </c>
       <c r="L4" t="n">
         <v>505.8480854901219</v>
       </c>
       <c r="M4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="N4" t="n">
         <v>505.8480854901219</v>
       </c>
       <c r="O4" t="n">
-        <v>505.848085490122</v>
+        <v>505.8480854901219</v>
       </c>
       <c r="P4" t="n">
         <v>505.8480854901219</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.1422248246964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677232</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J12" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M12" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394049</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587925</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L14" t="n">
-        <v>22.21755819470703</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R14" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H15" t="n">
-        <v>0.727517133052019</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I16" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J16" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394054</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587927</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R16" t="n">
-        <v>2.839592713390064</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407889878155793</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H17" t="n">
-        <v>1.441855221466302</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760126</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461253</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884601</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470705</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677235</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840337</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O17" t="n">
-        <v>23.7213605708122</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411508</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796965</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R17" t="n">
-        <v>8.843836255870389</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847516</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626986</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524634</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07532874947132627</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520197</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727681</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779998</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335886</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358775</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M18" t="n">
-        <v>19.08658709192332</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833411</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689051</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650265</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164386</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263575</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504678</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497756</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U18" t="n">
-        <v>0.00495583878100831</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006213</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623711</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227324</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174393</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170854</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894694</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948831</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394061</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179696</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938421</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.288210368587931</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390066</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025628</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T19" t="n">
-        <v>0.26983594324572</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094303</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H20" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760122</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461253</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K20" t="n">
-        <v>17.908887208846</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L20" t="n">
-        <v>22.21755819470703</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M20" t="n">
-        <v>24.72131435677234</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081219</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R20" t="n">
-        <v>8.843836255870384</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847514</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6163037941626982</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07532874947132623</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7275171330520193</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I21" t="n">
-        <v>2.59355562872768</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779993</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L21" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M21" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N21" t="n">
-        <v>19.5917522583341</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O21" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164381</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263573</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S21" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0631530931000621</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623708</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I22" t="n">
-        <v>1.899185745227323</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J22" t="n">
-        <v>4.464923682174391</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894689</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948824</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N22" t="n">
-        <v>9.664145601394056</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179691</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938417</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.288210368587928</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R22" t="n">
-        <v>2.839592713390064</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457198</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9356637960127364</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H38" t="n">
-        <v>9.58236685091544</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I38" t="n">
         <v>36.07217849578105</v>
       </c>
       <c r="J38" t="n">
-        <v>79.41329510683606</v>
+        <v>79.41329510683605</v>
       </c>
       <c r="K38" t="n">
         <v>119.0199435920552</v>
@@ -33927,7 +33927,7 @@
         <v>4.095868267045756</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0748531036810189</v>
+        <v>0.07485310368101888</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.500624265951532</v>
+        <v>0.5006242659515319</v>
       </c>
       <c r="H39" t="n">
-        <v>4.834976463268744</v>
+        <v>4.834976463268743</v>
       </c>
       <c r="I39" t="n">
         <v>17.23640564789266</v>
@@ -33994,10 +33994,10 @@
         <v>95.59727759209561</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.90424840462012</v>
+        <v>63.90424840462011</v>
       </c>
       <c r="R39" t="n">
-        <v>31.08261889828899</v>
+        <v>31.08261889828898</v>
       </c>
       <c r="S39" t="n">
         <v>9.298876168003229</v>
@@ -34006,7 +34006,7 @@
         <v>2.017867107059025</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03293580697049554</v>
+        <v>0.03293580697049553</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4197065675147298</v>
+        <v>0.4197065675147297</v>
       </c>
       <c r="H40" t="n">
-        <v>3.731572936630964</v>
+        <v>3.731572936630963</v>
       </c>
       <c r="I40" t="n">
         <v>12.62172113944297</v>
       </c>
       <c r="J40" t="n">
-        <v>29.6732543232914</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K40" t="n">
         <v>48.76227211671132</v>
       </c>
       <c r="L40" t="n">
-        <v>62.39892004668993</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M40" t="n">
-        <v>65.79091221505895</v>
+        <v>65.79091221505894</v>
       </c>
       <c r="N40" t="n">
-        <v>64.2265513725041</v>
+        <v>64.22655137250409</v>
       </c>
       <c r="O40" t="n">
-        <v>59.32361556108201</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P40" t="n">
-        <v>50.76160158378148</v>
+        <v>50.76160158378147</v>
       </c>
       <c r="Q40" t="n">
         <v>35.14470175798342</v>
@@ -34079,7 +34079,7 @@
         <v>18.8715334811623</v>
       </c>
       <c r="S40" t="n">
-        <v>7.314340817506698</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T40" t="n">
         <v>1.793291697562936</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9356637960127364</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H41" t="n">
-        <v>9.58236685091544</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I41" t="n">
         <v>36.07217849578105</v>
       </c>
       <c r="J41" t="n">
-        <v>79.41329510683606</v>
+        <v>79.41329510683605</v>
       </c>
       <c r="K41" t="n">
         <v>119.0199435920552</v>
@@ -34164,7 +34164,7 @@
         <v>4.095868267045756</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0748531036810189</v>
+        <v>0.07485310368101888</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.500624265951532</v>
+        <v>0.5006242659515319</v>
       </c>
       <c r="H42" t="n">
-        <v>4.834976463268744</v>
+        <v>4.834976463268743</v>
       </c>
       <c r="I42" t="n">
         <v>17.23640564789266</v>
@@ -34231,10 +34231,10 @@
         <v>95.59727759209561</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.90424840462012</v>
+        <v>63.90424840462011</v>
       </c>
       <c r="R42" t="n">
-        <v>31.08261889828899</v>
+        <v>31.08261889828898</v>
       </c>
       <c r="S42" t="n">
         <v>9.298876168003229</v>
@@ -34243,7 +34243,7 @@
         <v>2.017867107059025</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03293580697049554</v>
+        <v>0.03293580697049553</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,34 +34280,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4197065675147298</v>
+        <v>0.4197065675147297</v>
       </c>
       <c r="H43" t="n">
-        <v>3.731572936630964</v>
+        <v>3.731572936630963</v>
       </c>
       <c r="I43" t="n">
         <v>12.62172113944297</v>
       </c>
       <c r="J43" t="n">
-        <v>29.6732543232914</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K43" t="n">
         <v>48.76227211671132</v>
       </c>
       <c r="L43" t="n">
-        <v>62.39892004668993</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M43" t="n">
-        <v>65.79091221505895</v>
+        <v>65.79091221505894</v>
       </c>
       <c r="N43" t="n">
-        <v>64.2265513725041</v>
+        <v>64.22655137250409</v>
       </c>
       <c r="O43" t="n">
-        <v>59.32361556108201</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P43" t="n">
-        <v>50.76160158378148</v>
+        <v>50.76160158378147</v>
       </c>
       <c r="Q43" t="n">
         <v>35.14470175798342</v>
@@ -34316,7 +34316,7 @@
         <v>18.8715334811623</v>
       </c>
       <c r="S43" t="n">
-        <v>7.314340817506698</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T43" t="n">
         <v>1.793291697562936</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35427,10 +35427,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522133</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>263.1686671037984</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023555</v>
+        <v>151.8955562274026</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199196</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M13" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35664,10 +35664,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L15" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O15" t="n">
-        <v>151.2980666667449</v>
+        <v>153.725563888491</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M16" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35901,10 +35901,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P17" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424844</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K18" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L18" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>158.2658797799248</v>
+        <v>224.6389055562145</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.71116244199197</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721083</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M19" t="n">
-        <v>49.48341136478942</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421937</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831909</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36138,10 +36138,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P20" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424833</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.370323552522136</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N21" t="n">
-        <v>151.8955562274027</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="O21" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P21" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q21" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>36.97916784721083</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M22" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N22" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O22" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831905</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N24" t="n">
-        <v>478.2046900964478</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O24" t="n">
-        <v>345.3316135320087</v>
+        <v>370.3773228808498</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q24" t="n">
         <v>133.9997620544477</v>
@@ -36694,7 +36694,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.88347547881122</v>
+        <v>82.88347547881098</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>46.55142320383842</v>
       </c>
       <c r="K30" t="n">
-        <v>207.4636383870685</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>340.9851071285437</v>
@@ -36925,13 +36925,13 @@
         <v>478.2046900964478</v>
       </c>
       <c r="O30" t="n">
-        <v>65.24597471430624</v>
+        <v>370.3773228808498</v>
       </c>
       <c r="P30" t="n">
         <v>280.0856388177025</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.9997620544477</v>
+        <v>36.33205227497318</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K33" t="n">
         <v>207.4636383870685</v>
@@ -37156,7 +37156,7 @@
         <v>340.9851071285437</v>
       </c>
       <c r="M33" t="n">
-        <v>191.8378761109782</v>
+        <v>145.2864529071398</v>
       </c>
       <c r="N33" t="n">
         <v>478.2046900964478</v>
@@ -37396,13 +37396,13 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N36" t="n">
-        <v>478.2046900964478</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O36" t="n">
-        <v>345.3316135320087</v>
+        <v>370.3773228808498</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q36" t="n">
         <v>133.9997620544477</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>67.46400575222354</v>
+        <v>67.46400575222353</v>
       </c>
       <c r="K38" t="n">
         <v>223.0755051182394</v>
       </c>
       <c r="L38" t="n">
-        <v>329.5495640697433</v>
+        <v>329.5495640697432</v>
       </c>
       <c r="M38" t="n">
         <v>383.4616757871813</v>
       </c>
       <c r="N38" t="n">
-        <v>374.886691097436</v>
+        <v>374.8866910974359</v>
       </c>
       <c r="O38" t="n">
         <v>308.3507932514997</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K39" t="n">
-        <v>82.88347547881092</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L39" t="n">
         <v>340.9851071285437</v>
@@ -37633,7 +37633,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N39" t="n">
-        <v>478.2046900964478</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O39" t="n">
         <v>370.3773228808498</v>
@@ -37642,7 +37642,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>26.49278029082847</v>
+        <v>26.49278029082846</v>
       </c>
       <c r="L40" t="n">
-        <v>89.98894530700608</v>
+        <v>89.98894530700605</v>
       </c>
       <c r="M40" t="n">
         <v>105.3747891768995</v>
@@ -37715,10 +37715,10 @@
         <v>108.3587237517327</v>
       </c>
       <c r="O40" t="n">
-        <v>83.90874347512168</v>
+        <v>83.90874347512167</v>
       </c>
       <c r="P40" t="n">
-        <v>48.04016084867497</v>
+        <v>48.04016084867496</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>67.46400575222354</v>
+        <v>67.46400575222353</v>
       </c>
       <c r="K41" t="n">
         <v>223.0755051182394</v>
       </c>
       <c r="L41" t="n">
-        <v>329.5495640697433</v>
+        <v>329.5495640697432</v>
       </c>
       <c r="M41" t="n">
         <v>383.4616757871813</v>
       </c>
       <c r="N41" t="n">
-        <v>374.886691097436</v>
+        <v>374.8866910974359</v>
       </c>
       <c r="O41" t="n">
         <v>308.3507932514997</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88347547881139</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>340.9851071285437</v>
@@ -37879,7 +37879,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>82.88347547881098</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>26.49278029082847</v>
+        <v>26.49278029082846</v>
       </c>
       <c r="L43" t="n">
-        <v>89.98894530700608</v>
+        <v>89.98894530700605</v>
       </c>
       <c r="M43" t="n">
         <v>105.3747891768995</v>
@@ -37952,10 +37952,10 @@
         <v>108.3587237517327</v>
       </c>
       <c r="O43" t="n">
-        <v>83.90874347512168</v>
+        <v>83.90874347512167</v>
       </c>
       <c r="P43" t="n">
-        <v>48.04016084867497</v>
+        <v>48.04016084867496</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>46.55142320383842</v>
       </c>
       <c r="K45" t="n">
-        <v>36.33205227497252</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L45" t="n">
         <v>340.9851071285437</v>
@@ -38107,7 +38107,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N45" t="n">
-        <v>478.2046900964478</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O45" t="n">
         <v>370.3773228808498</v>
@@ -38116,7 +38116,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>620030.7536337402</v>
+        <v>700485.569994427</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680573.5606250047</v>
+        <v>680573.5606250048</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15081736.51669624</v>
+        <v>15081736.51669623</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>19.32506089955429</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>131.7659851933074</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>54.37964951393259</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="H8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="C9" t="n">
-        <v>7.417475588902602</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,13 +1229,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="G11" t="n">
-        <v>197.3801726732571</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>38.19053515138876</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1451,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>7.529391133103147</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>158.5123736899938</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>29.71014592494656</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>91.10378467502353</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>209.3943833582534</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>201.5155040037</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>29.71014592494659</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="I17" t="n">
-        <v>45.5812354126099</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>92.71462625045356</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I18" t="n">
         <v>86.80307722268741</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>54.38153599947351</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="W19" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>243.2386572690345</v>
+      </c>
+      <c r="X20" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="G20" t="n">
-        <v>102.2133755837552</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="Y20" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>208.7311438739628</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>130.4731316709133</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>262.1289214904143</v>
+        <v>313.7931836139597</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.3670737191223</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.9999812970856</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>106.3310523886623</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>136.8428928972591</v>
       </c>
       <c r="H24" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.08379180237871</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T24" t="n">
         <v>198.1468615877626</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>166.4440780709522</v>
+        <v>226.8147786768246</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S26" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>185.1817195550922</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>102.0037447416072</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>131.5202140654395</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>162.3842949358346</v>
+        <v>156.4019428143499</v>
       </c>
       <c r="T27" t="n">
         <v>198.1468615877626</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>166.4440780709522</v>
+        <v>200.8294330837152</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>95.14451070433635</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.3670737191223</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>91.09422701486457</v>
       </c>
       <c r="S29" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.9999812970856</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>199.538399042215</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2882,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>24.05460355094004</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T30" t="n">
         <v>198.1468615877626</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9084462740043</v>
+        <v>32.06389156739519</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>88.96137503251713</v>
       </c>
       <c r="X31" t="n">
-        <v>166.4440780709522</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>128.2652151292368</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H32" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>77.11077230852167</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H33" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I33" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S33" t="n">
-        <v>162.3842949358346</v>
+        <v>157.0616161040151</v>
       </c>
       <c r="T33" t="n">
         <v>198.1468615877626</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>195.1190746913817</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>59.24350588588062</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>200.8294330837151</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.3670737191223</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>357.7327534532244</v>
       </c>
       <c r="Y35" t="n">
-        <v>268.3910989389555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>27.05582224354615</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T36" t="n">
         <v>198.1468615877626</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>226.0063855921899</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>139.9747555936679</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>12.49659271983031</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>393.3052438754307</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U38" t="n">
-        <v>77.56479556642266</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,19 +3587,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>181.9644945755157</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V39" t="n">
-        <v>197.2249690519162</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>81.39373065389331</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>12.49659271983031</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>198.4766393150725</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>323.3826700141297</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>116.0183361811627</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>55.668281488835</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I42" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>226.8147786768246</v>
       </c>
       <c r="V43" t="n">
-        <v>166.4440780709521</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>329.8924352648517</v>
       </c>
       <c r="I44" t="n">
-        <v>23.38210928091131</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>175.8520352182023</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>139.8761670017112</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H45" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S45" t="n">
-        <v>162.3842949358346</v>
+        <v>158.3871129248509</v>
       </c>
       <c r="T45" t="n">
         <v>198.1468615877626</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>151.6427230489192</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>158.4955995708086</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>142.8287537878153</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>139.2862926623461</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>347.7274039646085</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>347.7274039646085</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>198.7929943033573</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>39.55553929790176</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.84447166430675</v>
+        <v>347.7274039646085</v>
       </c>
     </row>
     <row r="4">
@@ -4515,16 +4515,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.3780978509273</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C6" t="n">
-        <v>152.3780978509273</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4688,10 +4688,10 @@
         <v>360.2295980564601</v>
       </c>
       <c r="X6" t="n">
-        <v>152.3780978509273</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y6" t="n">
-        <v>152.3780978509273</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="7">
@@ -4746,7 +4746,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G8" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>312.0389260854624</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C9" t="n">
-        <v>304.5465265007123</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>304.5465265007123</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>304.5465265007123</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>555.4877027295624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>312.0389260854624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>312.0389260854624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>312.0389260854624</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>500.4124063240799</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="C11" t="n">
-        <v>500.4124063240799</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="D11" t="n">
-        <v>500.4124063240799</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="E11" t="n">
-        <v>500.4124063240799</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="F11" t="n">
-        <v>221.4664328873572</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I11" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
         <v>586.3582880173956</v>
@@ -5056,7 +5056,7 @@
         <v>817.0829279823541</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>962.1762753293416</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="S11" t="n">
-        <v>754.2855273228791</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="T11" t="n">
-        <v>754.2855273228791</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="U11" t="n">
-        <v>500.4124063240799</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="V11" t="n">
-        <v>500.4124063240799</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="W11" t="n">
-        <v>500.4124063240799</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="X11" t="n">
-        <v>500.4124063240799</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="Y11" t="n">
-        <v>500.4124063240799</v>
+        <v>1066.049756676706</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>273.3815266691013</v>
+        <v>363.388450971764</v>
       </c>
       <c r="C12" t="n">
-        <v>273.3815266691013</v>
+        <v>188.935421690637</v>
       </c>
       <c r="D12" t="n">
-        <v>273.3815266691013</v>
+        <v>188.935421690637</v>
       </c>
       <c r="E12" t="n">
-        <v>273.3815266691013</v>
+        <v>29.69796668518151</v>
       </c>
       <c r="F12" t="n">
-        <v>273.3815266691013</v>
+        <v>29.69796668518151</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7267908976475</v>
+        <v>29.69796668518151</v>
       </c>
       <c r="H12" t="n">
         <v>22.09252109618843</v>
@@ -5120,16 +5120,16 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L12" t="n">
-        <v>411.954469746149</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="M12" t="n">
-        <v>411.954469746149</v>
+        <v>288.9361218459457</v>
       </c>
       <c r="N12" t="n">
         <v>562.3310704112776</v>
@@ -5144,28 +5144,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="U12" t="n">
-        <v>876.4074424435694</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="V12" t="n">
-        <v>641.2553342118267</v>
+        <v>571.1487497367179</v>
       </c>
       <c r="W12" t="n">
-        <v>641.2553342118267</v>
+        <v>571.1487497367179</v>
       </c>
       <c r="X12" t="n">
-        <v>481.1418254340552</v>
+        <v>571.1487497367179</v>
       </c>
       <c r="Y12" t="n">
-        <v>273.3815266691013</v>
+        <v>363.388450971764</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F13" t="n">
         <v>22.09252109618843</v>
@@ -5211,40 +5211,40 @@
         <v>107.6904745160686</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>160.948829316885</v>
       </c>
       <c r="O13" t="n">
         <v>194.1252445754622</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031357</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="D14" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="E14" t="n">
-        <v>301.0384945329111</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F14" t="n">
         <v>301.0384945329111</v>
       </c>
       <c r="G14" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H14" t="n">
         <v>22.09252109618843</v>
@@ -5305,25 +5305,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S14" t="n">
-        <v>896.7353068029593</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T14" t="n">
-        <v>672.0084928939</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U14" t="n">
-        <v>672.0084928939</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V14" t="n">
-        <v>579.9844679696338</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W14" t="n">
-        <v>579.9844679696338</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X14" t="n">
-        <v>579.9844679696338</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.0384945329111</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C15" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D15" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F15" t="n">
-        <v>160.7472568676422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G15" t="n">
         <v>22.09252109618843</v>
@@ -5360,49 +5360,49 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K15" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L15" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M15" t="n">
-        <v>679.0427979944839</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N15" t="n">
-        <v>952.4377465598157</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O15" t="n">
-        <v>1104.626054809422</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P15" t="n">
-        <v>1104.626054809422</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="Q15" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U15" t="n">
-        <v>796.6712798007015</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V15" t="n">
-        <v>561.5191715689589</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W15" t="n">
-        <v>307.2818148407573</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X15" t="n">
-        <v>307.2818148407573</v>
+        <v>229.8528198611423</v>
       </c>
       <c r="Y15" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E16" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F16" t="n">
         <v>22.09252109618843</v>
@@ -5472,16 +5472,16 @@
         <v>198.9927170031358</v>
       </c>
       <c r="V16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.13417302811763</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C17" t="n">
-        <v>68.13417302811763</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D17" t="n">
-        <v>68.13417302811763</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E17" t="n">
-        <v>68.13417302811763</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="F17" t="n">
-        <v>68.13417302811763</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="G17" t="n">
-        <v>68.13417302811763</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="H17" t="n">
-        <v>68.13417302811763</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I17" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618831</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438682</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412867</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M17" t="n">
-        <v>586.3582880173955</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N17" t="n">
-        <v>817.082927982354</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901061</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
       </c>
       <c r="Q17" t="n">
-        <v>1104.626054809421</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809421</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809421</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T17" t="n">
-        <v>879.8992409003622</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U17" t="n">
-        <v>626.0261199015629</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V17" t="n">
-        <v>626.0261199015629</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W17" t="n">
-        <v>347.0801464648403</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X17" t="n">
-        <v>347.0801464648403</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="Y17" t="n">
-        <v>347.0801464648403</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377.8765639865488</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="C18" t="n">
-        <v>203.4235347054218</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="D18" t="n">
-        <v>109.772397078701</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="E18" t="n">
-        <v>109.772397078701</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="F18" t="n">
-        <v>109.772397078701</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G18" t="n">
-        <v>109.772397078701</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H18" t="n">
         <v>109.772397078701</v>
@@ -5594,52 +5594,52 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J18" t="n">
-        <v>28.39914141318533</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K18" t="n">
-        <v>165.799003153448</v>
+        <v>94.45522409818579</v>
       </c>
       <c r="L18" t="n">
-        <v>411.954469746149</v>
+        <v>94.45522409818579</v>
       </c>
       <c r="M18" t="n">
-        <v>634.3469862468013</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="N18" t="n">
-        <v>907.7419348121331</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O18" t="n">
-        <v>907.7419348121331</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.626054809421</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q18" t="n">
-        <v>1104.626054809421</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R18" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S18" t="n">
-        <v>1008.180757940351</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T18" t="n">
-        <v>1008.180757940351</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="U18" t="n">
-        <v>1008.180757940351</v>
+        <v>675.8112976447969</v>
       </c>
       <c r="V18" t="n">
-        <v>1008.180757940351</v>
+        <v>675.8112976447969</v>
       </c>
       <c r="W18" t="n">
-        <v>753.9434012121496</v>
+        <v>675.8112976447969</v>
       </c>
       <c r="X18" t="n">
-        <v>546.0919010066168</v>
+        <v>675.8112976447969</v>
       </c>
       <c r="Y18" t="n">
-        <v>546.0919010066168</v>
+        <v>675.8112976447969</v>
       </c>
     </row>
     <row r="19">
@@ -5709,7 +5709,7 @@
         <v>198.9927170031358</v>
       </c>
       <c r="V19" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W19" t="n">
         <v>22.09252109618843</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>404.2843284558962</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C20" t="n">
-        <v>404.2843284558962</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D20" t="n">
-        <v>404.2843284558962</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E20" t="n">
-        <v>404.2843284558962</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F20" t="n">
-        <v>125.3383550191735</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G20" t="n">
         <v>22.09252109618843</v>
@@ -5761,13 +5761,13 @@
         <v>344.9085595412868</v>
       </c>
       <c r="M20" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823541</v>
+        <v>817.082927982354</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901061</v>
       </c>
       <c r="P20" t="n">
         <v>1099.465256491931</v>
@@ -5776,28 +5776,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S20" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T20" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U20" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V20" t="n">
-        <v>683.2303018926189</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W20" t="n">
-        <v>683.2303018926189</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="X20" t="n">
-        <v>683.2303018926189</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y20" t="n">
-        <v>683.2303018926189</v>
+        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K21" t="n">
-        <v>22.09252109618843</v>
+        <v>121.6947060708167</v>
       </c>
       <c r="L21" t="n">
-        <v>268.2479876888894</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="M21" t="n">
-        <v>541.6429362542212</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="N21" t="n">
         <v>641.2451212288495</v>
@@ -5858,25 +5858,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S21" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T21" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U21" t="n">
-        <v>893.7865155427926</v>
+        <v>704.403429694748</v>
       </c>
       <c r="V21" t="n">
-        <v>658.6344073110499</v>
+        <v>704.403429694748</v>
       </c>
       <c r="W21" t="n">
-        <v>404.3970505828483</v>
+        <v>572.6123876029163</v>
       </c>
       <c r="X21" t="n">
-        <v>196.5455503773155</v>
+        <v>364.7608873973835</v>
       </c>
       <c r="Y21" t="n">
-        <v>196.5455503773155</v>
+        <v>364.7608873973835</v>
       </c>
     </row>
     <row r="22">
@@ -5916,7 +5916,7 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L22" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M22" t="n">
         <v>107.6904745160686</v>
@@ -5940,7 +5940,7 @@
         <v>198.9927170031358</v>
       </c>
       <c r="T22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U22" t="n">
         <v>22.09252109618843</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1520.571292317503</v>
+        <v>1161.771510885012</v>
       </c>
       <c r="C23" t="n">
-        <v>1520.571292317503</v>
+        <v>1161.771510885012</v>
       </c>
       <c r="D23" t="n">
-        <v>1255.794603943347</v>
+        <v>844.8086991537391</v>
       </c>
       <c r="E23" t="n">
-        <v>870.0063513451025</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="F23" t="n">
         <v>459.0204465554949</v>
@@ -5992,13 +5992,13 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K23" t="n">
-        <v>328.1019626009682</v>
+        <v>328.1019626009681</v>
       </c>
       <c r="L23" t="n">
         <v>654.356031030014</v>
       </c>
       <c r="M23" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N23" t="n">
         <v>1405.120914245785</v>
@@ -6007,34 +6007,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P23" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q23" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R23" t="n">
-        <v>1931.377971238402</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S23" t="n">
-        <v>1741.783394637791</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T23" t="n">
-        <v>1520.571292317503</v>
+        <v>1802.180239640199</v>
       </c>
       <c r="U23" t="n">
-        <v>1520.571292317503</v>
+        <v>1548.371350949133</v>
       </c>
       <c r="V23" t="n">
-        <v>1520.571292317503</v>
+        <v>1548.371350949133</v>
       </c>
       <c r="W23" t="n">
-        <v>1520.571292317503</v>
+        <v>1548.371350949133</v>
       </c>
       <c r="X23" t="n">
-        <v>1520.571292317503</v>
+        <v>1548.371350949133</v>
       </c>
       <c r="Y23" t="n">
-        <v>1520.571292317503</v>
+        <v>1548.371350949133</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>582.6472797973001</v>
+        <v>526.0278428809647</v>
       </c>
       <c r="C24" t="n">
-        <v>582.6472797973001</v>
+        <v>351.5748135998377</v>
       </c>
       <c r="D24" t="n">
-        <v>433.7128701360489</v>
+        <v>351.5748135998377</v>
       </c>
       <c r="E24" t="n">
-        <v>433.7128701360489</v>
+        <v>351.5748135998377</v>
       </c>
       <c r="F24" t="n">
-        <v>287.1783121629338</v>
+        <v>205.0402556267227</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9531678222681</v>
+        <v>66.81511128605695</v>
       </c>
       <c r="H24" t="n">
-        <v>40.46784683920976</v>
+        <v>66.81511128605695</v>
       </c>
       <c r="I24" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J24" t="n">
-        <v>86.55375581100978</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="K24" t="n">
         <v>291.9427578142076</v>
       </c>
       <c r="L24" t="n">
-        <v>629.5180138714659</v>
+        <v>327.4379791865878</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.431636934412</v>
+        <v>773.3516022495343</v>
       </c>
       <c r="N24" t="n">
         <v>1246.774245445018</v>
@@ -6086,7 +6086,7 @@
         <v>1613.447795097059</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.732577526584</v>
+        <v>1890.732577526585</v>
       </c>
       <c r="Q24" t="n">
         <v>2023.392341960488</v>
@@ -6095,25 +6095,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S24" t="n">
-        <v>2023.392341960488</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T24" t="n">
-        <v>1823.243996922344</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U24" t="n">
-        <v>1595.053647150622</v>
+        <v>1431.029106811396</v>
       </c>
       <c r="V24" t="n">
-        <v>1359.90153891888</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W24" t="n">
-        <v>1105.664182190678</v>
+        <v>941.6396418514514</v>
       </c>
       <c r="X24" t="n">
-        <v>897.8126819851452</v>
+        <v>733.7881416459186</v>
       </c>
       <c r="Y24" t="n">
-        <v>690.0523832201914</v>
+        <v>526.0278428809647</v>
       </c>
     </row>
     <row r="25">
@@ -6177,13 +6177,13 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T25" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865074</v>
       </c>
       <c r="U25" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865074</v>
       </c>
       <c r="V25" t="n">
-        <v>329.8850168761704</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="W25" t="n">
         <v>40.46784683920976</v>
@@ -6250,28 +6250,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R26" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S26" t="n">
-        <v>1833.797765359877</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T26" t="n">
-        <v>1833.797765359877</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="U26" t="n">
-        <v>1646.745523385036</v>
+        <v>1677.569082547336</v>
       </c>
       <c r="V26" t="n">
-        <v>1646.745523385036</v>
+        <v>1346.506195203765</v>
       </c>
       <c r="W26" t="n">
-        <v>1646.745523385036</v>
+        <v>1346.506195203765</v>
       </c>
       <c r="X26" t="n">
-        <v>1646.745523385036</v>
+        <v>973.0404369426856</v>
       </c>
       <c r="Y26" t="n">
-        <v>1256.606191409224</v>
+        <v>870.0063513451025</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>456.2548981795966</v>
+        <v>363.855285781588</v>
       </c>
       <c r="C27" t="n">
-        <v>281.8018688984696</v>
+        <v>189.402256500461</v>
       </c>
       <c r="D27" t="n">
-        <v>148.9531678222681</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E27" t="n">
-        <v>148.9531678222681</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F27" t="n">
-        <v>148.9531678222681</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G27" t="n">
-        <v>148.9531678222681</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H27" t="n">
         <v>40.46784683920976</v>
@@ -6305,52 +6305,52 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J27" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="K27" t="n">
-        <v>40.46784683920976</v>
+        <v>122.5224875632326</v>
       </c>
       <c r="L27" t="n">
-        <v>378.043102896468</v>
+        <v>460.0977436204909</v>
       </c>
       <c r="M27" t="n">
-        <v>823.9567259594146</v>
+        <v>906.0113666834374</v>
       </c>
       <c r="N27" t="n">
-        <v>1297.379369154898</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O27" t="n">
-        <v>1664.052918806939</v>
+        <v>1746.107559530962</v>
       </c>
       <c r="P27" t="n">
-        <v>1941.337701236465</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q27" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R27" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S27" t="n">
-        <v>1789.594856919893</v>
+        <v>1865.410581541953</v>
       </c>
       <c r="T27" t="n">
-        <v>1589.446511881749</v>
+        <v>1665.262236503808</v>
       </c>
       <c r="U27" t="n">
-        <v>1361.256162110028</v>
+        <v>1437.071886732087</v>
       </c>
       <c r="V27" t="n">
-        <v>1126.104053878285</v>
+        <v>1201.919778500344</v>
       </c>
       <c r="W27" t="n">
-        <v>871.8666971500834</v>
+        <v>947.6824217721428</v>
       </c>
       <c r="X27" t="n">
-        <v>664.0151969445506</v>
+        <v>739.83092156661</v>
       </c>
       <c r="Y27" t="n">
-        <v>456.2548981795966</v>
+        <v>532.0706228016561</v>
       </c>
     </row>
     <row r="28">
@@ -6417,10 +6417,10 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U28" t="n">
-        <v>329.8850168761704</v>
+        <v>295.1523350450966</v>
       </c>
       <c r="V28" t="n">
-        <v>329.8850168761704</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="W28" t="n">
         <v>40.46784683920976</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>635.1858112773382</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="C29" t="n">
-        <v>635.1858112773382</v>
+        <v>1614.060302550097</v>
       </c>
       <c r="D29" t="n">
-        <v>635.1858112773382</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="E29" t="n">
-        <v>635.1858112773382</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F29" t="n">
-        <v>635.1858112773382</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G29" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H29" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I29" t="n">
         <v>40.46784683920976</v>
@@ -6466,13 +6466,13 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K29" t="n">
-        <v>328.1019626009681</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L29" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M29" t="n">
-        <v>1033.983090059324</v>
+        <v>1033.983090059323</v>
       </c>
       <c r="N29" t="n">
         <v>1405.120914245785</v>
@@ -6481,34 +6481,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P29" t="n">
-        <v>1933.252382068734</v>
+        <v>1933.252382068733</v>
       </c>
       <c r="Q29" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R29" t="n">
-        <v>1931.377971238403</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S29" t="n">
-        <v>1741.783394637791</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T29" t="n">
-        <v>1520.571292317503</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="U29" t="n">
-        <v>1520.571292317503</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="V29" t="n">
-        <v>1189.508404973932</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="W29" t="n">
-        <v>836.739749703818</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="X29" t="n">
-        <v>635.1858112773382</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="Y29" t="n">
-        <v>635.1858112773382</v>
+        <v>1710.165868918114</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>620.2794385188238</v>
+        <v>807.8524431008243</v>
       </c>
       <c r="C30" t="n">
-        <v>445.8264092376968</v>
+        <v>633.3994138196973</v>
       </c>
       <c r="D30" t="n">
-        <v>296.8919995764455</v>
+        <v>484.465004158446</v>
       </c>
       <c r="E30" t="n">
-        <v>137.65454457099</v>
+        <v>325.2275491529905</v>
       </c>
       <c r="F30" t="n">
-        <v>113.3569652266061</v>
+        <v>178.6929911798755</v>
       </c>
       <c r="G30" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H30" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I30" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J30" t="n">
-        <v>86.55375581100979</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="K30" t="n">
-        <v>86.55375581100979</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L30" t="n">
-        <v>424.1290118682681</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M30" t="n">
-        <v>870.0426349312146</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N30" t="n">
-        <v>1343.465278126698</v>
+        <v>1548.854280129896</v>
       </c>
       <c r="O30" t="n">
-        <v>1710.138827778739</v>
+        <v>1915.527829781937</v>
       </c>
       <c r="P30" t="n">
-        <v>1987.423610208265</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q30" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R30" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S30" t="n">
-        <v>1953.61939725912</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T30" t="n">
-        <v>1753.471052220976</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U30" t="n">
-        <v>1525.280702449255</v>
+        <v>1626.831687323122</v>
       </c>
       <c r="V30" t="n">
-        <v>1290.128594217512</v>
+        <v>1391.679579091379</v>
       </c>
       <c r="W30" t="n">
-        <v>1035.89123748931</v>
+        <v>1391.679579091379</v>
       </c>
       <c r="X30" t="n">
-        <v>828.0397372837776</v>
+        <v>1183.828078885846</v>
       </c>
       <c r="Y30" t="n">
-        <v>620.2794385188238</v>
+        <v>976.0677801208924</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.46784683920976</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="C31" t="n">
-        <v>40.46784683920976</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="D31" t="n">
-        <v>40.46784683920976</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="E31" t="n">
-        <v>40.46784683920976</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="F31" t="n">
         <v>40.46784683920976</v>
@@ -6660,13 +6660,13 @@
         <v>498.0103482609705</v>
       </c>
       <c r="W31" t="n">
-        <v>208.5931782240099</v>
+        <v>408.1503734806502</v>
       </c>
       <c r="X31" t="n">
-        <v>40.46784683920976</v>
+        <v>408.1503734806502</v>
       </c>
       <c r="Y31" t="n">
-        <v>40.46784683920976</v>
+        <v>187.3577943371201</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>918.8204105871737</v>
+        <v>1572.036914700901</v>
       </c>
       <c r="C32" t="n">
-        <v>549.8578936467619</v>
+        <v>1203.07439776049</v>
       </c>
       <c r="D32" t="n">
-        <v>549.8578936467619</v>
+        <v>844.8086991537391</v>
       </c>
       <c r="E32" t="n">
-        <v>549.8578936467619</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="F32" t="n">
-        <v>549.8578936467619</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G32" t="n">
-        <v>549.8578936467619</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H32" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I32" t="n">
         <v>40.46784683920976</v>
@@ -6703,7 +6703,7 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K32" t="n">
-        <v>328.1019626009681</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L32" t="n">
         <v>654.3560310300138</v>
@@ -6733,19 +6733,19 @@
         <v>2023.392341960488</v>
       </c>
       <c r="U32" t="n">
-        <v>1769.583453269422</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="V32" t="n">
-        <v>1438.520565925851</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="W32" t="n">
-        <v>1438.520565925851</v>
+        <v>1945.502672961981</v>
       </c>
       <c r="X32" t="n">
-        <v>1438.520565925851</v>
+        <v>1572.036914700901</v>
       </c>
       <c r="Y32" t="n">
-        <v>1048.381233950039</v>
+        <v>1572.036914700901</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>851.0017381306133</v>
+        <v>461.6313414440608</v>
       </c>
       <c r="C33" t="n">
-        <v>676.5487088494863</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="D33" t="n">
-        <v>527.614299188235</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="E33" t="n">
-        <v>368.3768441827795</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="F33" t="n">
-        <v>221.8422862096645</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.8422862096645</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H33" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I33" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J33" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K33" t="n">
-        <v>291.9427578142076</v>
+        <v>122.5224875632326</v>
       </c>
       <c r="L33" t="n">
-        <v>629.5180138714659</v>
+        <v>460.0977436204909</v>
       </c>
       <c r="M33" t="n">
-        <v>773.3516022495343</v>
+        <v>906.0113666834374</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.774245445018</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O33" t="n">
-        <v>1613.447795097059</v>
+        <v>1746.107559530962</v>
       </c>
       <c r="P33" t="n">
-        <v>1890.732577526584</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q33" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R33" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S33" t="n">
-        <v>1859.367801621261</v>
+        <v>1794.971300184357</v>
       </c>
       <c r="T33" t="n">
-        <v>1659.219456583117</v>
+        <v>1594.822955146213</v>
       </c>
       <c r="U33" t="n">
-        <v>1659.219456583117</v>
+        <v>1366.632605374492</v>
       </c>
       <c r="V33" t="n">
-        <v>1424.067348351374</v>
+        <v>1131.480497142749</v>
       </c>
       <c r="W33" t="n">
-        <v>1226.977373915635</v>
+        <v>877.2431404145475</v>
       </c>
       <c r="X33" t="n">
-        <v>1226.977373915635</v>
+        <v>669.3916402090147</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.217075150681</v>
+        <v>461.6313414440608</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="C34" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="D34" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="E34" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="F34" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="G34" t="n">
         <v>40.46784683920976</v>
@@ -6885,25 +6885,25 @@
         <v>498.0103482609705</v>
       </c>
       <c r="S34" t="n">
-        <v>498.0103482609705</v>
+        <v>438.1684231237174</v>
       </c>
       <c r="T34" t="n">
-        <v>498.0103482609705</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="U34" t="n">
-        <v>498.0103482609705</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="V34" t="n">
-        <v>243.3258600550837</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="W34" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="X34" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>459.0204465554949</v>
+        <v>1238.968868285514</v>
       </c>
       <c r="C35" t="n">
-        <v>459.0204465554949</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="D35" t="n">
-        <v>459.0204465554949</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="E35" t="n">
-        <v>459.0204465554949</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F35" t="n">
         <v>459.0204465554949</v>
@@ -6940,7 +6940,7 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K35" t="n">
-        <v>328.1019626009681</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L35" t="n">
         <v>654.356031030014</v>
@@ -6967,22 +6967,22 @@
         <v>1931.377971238403</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.165868918114</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="U35" t="n">
-        <v>1456.356980227048</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="V35" t="n">
-        <v>1456.356980227048</v>
+        <v>1600.315083894832</v>
       </c>
       <c r="W35" t="n">
-        <v>1103.588324956934</v>
+        <v>1600.315083894832</v>
       </c>
       <c r="X35" t="n">
-        <v>730.1225666958539</v>
+        <v>1238.968868285514</v>
       </c>
       <c r="Y35" t="n">
-        <v>459.0204465554949</v>
+        <v>1238.968868285514</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>620.2794385188238</v>
+        <v>523.0927407870436</v>
       </c>
       <c r="C36" t="n">
-        <v>620.2794385188238</v>
+        <v>348.6397115059165</v>
       </c>
       <c r="D36" t="n">
-        <v>592.9503251415044</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="E36" t="n">
-        <v>433.7128701360489</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F36" t="n">
-        <v>287.1783121629338</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G36" t="n">
-        <v>148.9531678222681</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H36" t="n">
         <v>40.46784683920976</v>
@@ -7016,25 +7016,25 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J36" t="n">
-        <v>86.55375581100979</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K36" t="n">
-        <v>291.9427578142076</v>
+        <v>122.522487563233</v>
       </c>
       <c r="L36" t="n">
-        <v>629.5180138714659</v>
+        <v>460.0977436204913</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.431636934412</v>
+        <v>906.0113666834378</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.774245445018</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O36" t="n">
-        <v>1613.447795097059</v>
+        <v>1746.107559530963</v>
       </c>
       <c r="P36" t="n">
-        <v>1890.732577526585</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q36" t="n">
         <v>2023.392341960488</v>
@@ -7043,25 +7043,25 @@
         <v>1953.61939725912</v>
       </c>
       <c r="S36" t="n">
-        <v>1953.61939725912</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T36" t="n">
-        <v>1753.471052220976</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U36" t="n">
-        <v>1525.280702449255</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="V36" t="n">
-        <v>1290.128594217512</v>
+        <v>1361.1572335058</v>
       </c>
       <c r="W36" t="n">
-        <v>1035.89123748931</v>
+        <v>1106.919876777598</v>
       </c>
       <c r="X36" t="n">
-        <v>828.0397372837776</v>
+        <v>899.0683765720655</v>
       </c>
       <c r="Y36" t="n">
-        <v>620.2794385188238</v>
+        <v>691.3080778071117</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>485.387527331849</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="C37" t="n">
-        <v>485.387527331849</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="D37" t="n">
-        <v>335.2708879195133</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="E37" t="n">
-        <v>187.3577943371201</v>
+        <v>356.6217062471646</v>
       </c>
       <c r="F37" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="G37" t="n">
         <v>40.46784683920976</v>
@@ -7125,22 +7125,22 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T37" t="n">
-        <v>485.387527331849</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U37" t="n">
-        <v>485.387527331849</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V37" t="n">
-        <v>485.387527331849</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W37" t="n">
-        <v>485.387527331849</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="X37" t="n">
-        <v>485.387527331849</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.387527331849</v>
+        <v>498.0103482609705</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>837.2420042270616</v>
+        <v>972.1769342844002</v>
       </c>
       <c r="C38" t="n">
-        <v>837.2420042270616</v>
+        <v>972.1769342844002</v>
       </c>
       <c r="D38" t="n">
-        <v>837.2420042270616</v>
+        <v>613.9112356776498</v>
       </c>
       <c r="E38" t="n">
-        <v>451.4537516288173</v>
+        <v>613.9112356776498</v>
       </c>
       <c r="F38" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="G38" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H38" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I38" t="n">
         <v>40.46784683920976</v>
@@ -7177,10 +7177,10 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K38" t="n">
-        <v>328.1019626009682</v>
+        <v>328.1019626009681</v>
       </c>
       <c r="L38" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M38" t="n">
         <v>1033.983090059323</v>
@@ -7201,25 +7201,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S38" t="n">
-        <v>2023.392341960488</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="T38" t="n">
-        <v>2023.392341960488</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="U38" t="n">
-        <v>1945.044063610566</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="V38" t="n">
-        <v>1613.981176266995</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="W38" t="n">
-        <v>1613.981176266995</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="X38" t="n">
-        <v>1613.981176266995</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="Y38" t="n">
-        <v>1223.841844291183</v>
+        <v>1358.776774348522</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>916.3377640838827</v>
+        <v>374.1583311257923</v>
       </c>
       <c r="C39" t="n">
-        <v>741.8847348027557</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="D39" t="n">
-        <v>592.9503251415044</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="E39" t="n">
-        <v>433.7128701360489</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F39" t="n">
-        <v>287.1783121629338</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G39" t="n">
-        <v>148.9531678222681</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H39" t="n">
         <v>40.46784683920976</v>
@@ -7262,7 +7262,7 @@
         <v>629.5180138714659</v>
       </c>
       <c r="M39" t="n">
-        <v>1075.431636934412</v>
+        <v>773.3516022495343</v>
       </c>
       <c r="N39" t="n">
         <v>1246.774245445018</v>
@@ -7277,28 +7277,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R39" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S39" t="n">
-        <v>1953.61939725912</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T39" t="n">
-        <v>1953.61939725912</v>
+        <v>1675.565281848013</v>
       </c>
       <c r="U39" t="n">
-        <v>1953.61939725912</v>
+        <v>1447.374932076291</v>
       </c>
       <c r="V39" t="n">
-        <v>1754.402256802639</v>
+        <v>1212.222823844549</v>
       </c>
       <c r="W39" t="n">
-        <v>1500.164900074437</v>
+        <v>957.9854671163471</v>
       </c>
       <c r="X39" t="n">
-        <v>1292.313399868905</v>
+        <v>750.1339669108143</v>
       </c>
       <c r="Y39" t="n">
-        <v>1084.553101103951</v>
+        <v>542.3736681458604</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>269.5736838865073</v>
+        <v>485.387527331849</v>
       </c>
       <c r="C40" t="n">
-        <v>269.5736838865073</v>
+        <v>485.387527331849</v>
       </c>
       <c r="D40" t="n">
-        <v>269.5736838865073</v>
+        <v>335.2708879195133</v>
       </c>
       <c r="E40" t="n">
         <v>187.3577943371201</v>
@@ -7335,16 +7335,16 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K40" t="n">
-        <v>66.69569932712993</v>
+        <v>66.69569932712994</v>
       </c>
       <c r="L40" t="n">
-        <v>155.7847551810659</v>
+        <v>155.784755181066</v>
       </c>
       <c r="M40" t="n">
         <v>260.1057964661965</v>
       </c>
       <c r="N40" t="n">
-        <v>367.3809329804118</v>
+        <v>367.3809329804119</v>
       </c>
       <c r="O40" t="n">
         <v>450.4505890207823</v>
@@ -7362,22 +7362,22 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T40" t="n">
-        <v>269.5736838865073</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U40" t="n">
-        <v>269.5736838865073</v>
+        <v>485.387527331849</v>
       </c>
       <c r="V40" t="n">
-        <v>269.5736838865073</v>
+        <v>485.387527331849</v>
       </c>
       <c r="W40" t="n">
-        <v>269.5736838865073</v>
+        <v>485.387527331849</v>
       </c>
       <c r="X40" t="n">
-        <v>269.5736838865073</v>
+        <v>485.387527331849</v>
       </c>
       <c r="Y40" t="n">
-        <v>269.5736838865073</v>
+        <v>485.387527331849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1246.653169920554</v>
+        <v>1415.134233007357</v>
       </c>
       <c r="C41" t="n">
-        <v>1246.653169920554</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="D41" t="n">
         <v>1046.171716066946</v>
@@ -7411,16 +7411,16 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J41" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K41" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009681</v>
       </c>
       <c r="L41" t="n">
-        <v>654.3560310300138</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M41" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N41" t="n">
         <v>1405.120914245785</v>
@@ -7429,34 +7429,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P41" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q41" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R41" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="S41" t="n">
-        <v>2023.392341960488</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T41" t="n">
-        <v>2023.392341960488</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="U41" t="n">
-        <v>2023.392341960488</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="V41" t="n">
-        <v>2023.392341960488</v>
+        <v>1415.134233007357</v>
       </c>
       <c r="W41" t="n">
-        <v>2023.392341960488</v>
+        <v>1415.134233007357</v>
       </c>
       <c r="X41" t="n">
-        <v>2023.392341960488</v>
+        <v>1415.134233007357</v>
       </c>
       <c r="Y41" t="n">
-        <v>1633.253009984676</v>
+        <v>1415.134233007357</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>652.2124465368995</v>
+        <v>767.4033544226314</v>
       </c>
       <c r="C42" t="n">
-        <v>477.7594172557725</v>
+        <v>592.9503251415044</v>
       </c>
       <c r="D42" t="n">
-        <v>328.8250075945213</v>
+        <v>592.9503251415044</v>
       </c>
       <c r="E42" t="n">
-        <v>169.5875525890658</v>
+        <v>433.7128701360489</v>
       </c>
       <c r="F42" t="n">
-        <v>113.3569652266061</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G42" t="n">
-        <v>113.3569652266061</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H42" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I42" t="n">
         <v>40.46784683920976</v>
@@ -7493,22 +7493,22 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K42" t="n">
-        <v>40.46784683920976</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L42" t="n">
-        <v>378.043102896468</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M42" t="n">
-        <v>823.9567259594146</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N42" t="n">
-        <v>1297.379369154898</v>
+        <v>1502.768371158096</v>
       </c>
       <c r="O42" t="n">
-        <v>1664.052918806939</v>
+        <v>1869.441920810137</v>
       </c>
       <c r="P42" t="n">
-        <v>1941.337701236465</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q42" t="n">
         <v>2023.392341960488</v>
@@ -7517,25 +7517,25 @@
         <v>1953.61939725912</v>
       </c>
       <c r="S42" t="n">
-        <v>1953.61939725912</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T42" t="n">
-        <v>1953.61939725912</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="U42" t="n">
-        <v>1725.429047487399</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="V42" t="n">
-        <v>1490.276939255656</v>
+        <v>1554.442748688151</v>
       </c>
       <c r="W42" t="n">
-        <v>1236.039582527454</v>
+        <v>1300.205391959949</v>
       </c>
       <c r="X42" t="n">
-        <v>1028.188082321921</v>
+        <v>1092.353891754416</v>
       </c>
       <c r="Y42" t="n">
-        <v>820.4277835569676</v>
+        <v>884.5935929894624</v>
       </c>
     </row>
     <row r="43">
@@ -7572,16 +7572,16 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K43" t="n">
-        <v>66.69569932712993</v>
+        <v>66.69569932712994</v>
       </c>
       <c r="L43" t="n">
-        <v>155.7847551810659</v>
+        <v>155.784755181066</v>
       </c>
       <c r="M43" t="n">
         <v>260.1057964661965</v>
       </c>
       <c r="N43" t="n">
-        <v>367.3809329804118</v>
+        <v>367.3809329804119</v>
       </c>
       <c r="O43" t="n">
         <v>450.4505890207823</v>
@@ -7599,13 +7599,13 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T43" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865074</v>
       </c>
       <c r="U43" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="V43" t="n">
-        <v>329.8850168761704</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="W43" t="n">
         <v>40.46784683920976</v>
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1226.849325633752</v>
+        <v>908.1235922535125</v>
       </c>
       <c r="C44" t="n">
-        <v>1226.849325633752</v>
+        <v>908.1235922535125</v>
       </c>
       <c r="D44" t="n">
-        <v>1226.849325633752</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="E44" t="n">
-        <v>1226.849325633752</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="F44" t="n">
-        <v>815.8634208441445</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3108211278593</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="H44" t="n">
-        <v>64.08613904215048</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I44" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J44" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K44" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L44" t="n">
-        <v>654.3560310300138</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M44" t="n">
         <v>1033.983090059323</v>
@@ -7672,28 +7672,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R44" t="n">
-        <v>1931.377971238402</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S44" t="n">
-        <v>1931.377971238402</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T44" t="n">
-        <v>1931.377971238402</v>
+        <v>1845.764023558263</v>
       </c>
       <c r="U44" t="n">
-        <v>1931.377971238402</v>
+        <v>1591.955134867197</v>
       </c>
       <c r="V44" t="n">
-        <v>1600.315083894832</v>
+        <v>1260.892247523627</v>
       </c>
       <c r="W44" t="n">
-        <v>1600.315083894832</v>
+        <v>908.1235922535125</v>
       </c>
       <c r="X44" t="n">
-        <v>1226.849325633752</v>
+        <v>908.1235922535125</v>
       </c>
       <c r="Y44" t="n">
-        <v>1226.849325633752</v>
+        <v>908.1235922535125</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>770.4672676594516</v>
+        <v>989.2268824712791</v>
       </c>
       <c r="C45" t="n">
-        <v>596.0142383783246</v>
+        <v>814.7738531901521</v>
       </c>
       <c r="D45" t="n">
-        <v>454.7251808008386</v>
+        <v>665.8394435289008</v>
       </c>
       <c r="E45" t="n">
-        <v>295.4877257953831</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="F45" t="n">
-        <v>148.9531678222681</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G45" t="n">
-        <v>148.9531678222681</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H45" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I45" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J45" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K45" t="n">
-        <v>291.9427578142076</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L45" t="n">
-        <v>629.5180138714659</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.431636934412</v>
+        <v>823.9567259594146</v>
       </c>
       <c r="N45" t="n">
-        <v>1246.774245445018</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O45" t="n">
         <v>1613.447795097059</v>
@@ -7754,25 +7754,25 @@
         <v>1953.61939725912</v>
       </c>
       <c r="S45" t="n">
-        <v>1789.594856919893</v>
+        <v>1793.632414506745</v>
       </c>
       <c r="T45" t="n">
-        <v>1589.446511881749</v>
+        <v>1593.484069468601</v>
       </c>
       <c r="U45" t="n">
-        <v>1589.446511881749</v>
+        <v>1365.29371969688</v>
       </c>
       <c r="V45" t="n">
-        <v>1354.294403650006</v>
+        <v>1365.29371969688</v>
       </c>
       <c r="W45" t="n">
-        <v>1354.294403650006</v>
+        <v>1365.29371969688</v>
       </c>
       <c r="X45" t="n">
-        <v>1146.442903444474</v>
+        <v>1157.442219491347</v>
       </c>
       <c r="Y45" t="n">
-        <v>938.6826046795197</v>
+        <v>1157.442219491347</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>498.0103482609705</v>
+        <v>357.3171233495098</v>
       </c>
       <c r="C46" t="n">
-        <v>498.0103482609705</v>
+        <v>188.3809404216029</v>
       </c>
       <c r="D46" t="n">
-        <v>498.0103482609705</v>
+        <v>188.3809404216029</v>
       </c>
       <c r="E46" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F46" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G46" t="n">
-        <v>344.8358805347895</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H46" t="n">
-        <v>184.7393153117505</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I46" t="n">
         <v>40.46784683920976</v>
@@ -7839,19 +7839,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U46" t="n">
-        <v>498.0103482609705</v>
+        <v>357.3171233495098</v>
       </c>
       <c r="V46" t="n">
-        <v>498.0103482609705</v>
+        <v>357.3171233495098</v>
       </c>
       <c r="W46" t="n">
-        <v>498.0103482609705</v>
+        <v>357.3171233495098</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0103482609705</v>
+        <v>357.3171233495098</v>
       </c>
       <c r="Y46" t="n">
-        <v>498.0103482609705</v>
+        <v>357.3171233495098</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562865</v>
       </c>
       <c r="M12" t="n">
-        <v>123.047446830095</v>
+        <v>392.5864374864155</v>
       </c>
       <c r="N12" t="n">
-        <v>263.6455160524018</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9008,7 +9008,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,13 +9020,13 @@
         <v>387.9064735273546</v>
       </c>
       <c r="O15" t="n">
-        <v>278.399182576045</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>119.5899201578276</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3661252938572</v>
+        <v>153.6907277247511</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>198.7711372769571</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562865</v>
       </c>
       <c r="M18" t="n">
-        <v>347.6863523863095</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N18" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O18" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,16 +9482,16 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>125.6774978810002</v>
+        <v>226.2857655321398</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N21" t="n">
-        <v>212.3582274761389</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>65.70899713691561</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>174.21102617701</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>79.53961213657041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>57.00159862551008</v>
+        <v>93.33365090048261</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.9610011602124</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10123,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119841</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>57.00159862551008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>147.3311825278412</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4095779563746</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>139.885074104321</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>160.5737155834564</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>139.8850741043215</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>174.21102617701</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>160.5737155834564</v>
       </c>
       <c r="N39" t="n">
-        <v>174.21102617701</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11141,7 +11141,7 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K42" t="n">
-        <v>57.00159862551008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>193.8826057316799</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.9610011602124</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,10 +11387,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>174.21102617701</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>342.7460327010929</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22549,19 +22549,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,13 +22603,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22625,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>125.7441514938296</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>164.936795482178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,16 +22868,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>15.67908037133134</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>103.2654309414684</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>194.4189411335972</v>
       </c>
       <c r="H8" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>21.08647536425173</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2910233994131</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23117,13 +23117,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,10 +23159,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,13 +23272,13 @@
         <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>217.7817758540624</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>102.8347465338906</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23339,22 +23339,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>103.9785359703413</v>
       </c>
       <c r="I12" t="n">
         <v>86.80307722268741</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>47.26061151348367</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.9053270932658</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.9278262653587</v>
@@ -23442,7 +23442,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>14.93225064571202</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>80.87383288310647</v>
       </c>
       <c r="R13" t="n">
         <v>174.4537986637794</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>50.57846144115931</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>139.4951843944461</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G14" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H14" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
         <v>205.0481221176458</v>
@@ -23545,16 +23545,16 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
-        <v>236.6484737951114</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,10 +23585,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
         <v>111.5079271034444</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
         <v>170.2839726213331</v>
@@ -23630,19 +23630,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>16.54204288394044</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>50.17947915721959</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>116.7238167216226</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.9278262653587</v>
@@ -23712,7 +23712,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595015</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.5773279611252</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,10 +23749,10 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H17" t="n">
-        <v>338.0329468943008</v>
+        <v>94.79428962526615</v>
       </c>
       <c r="I17" t="n">
-        <v>159.4668867050359</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>73.08445501505764</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>54.73043931418519</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>171.5548902427203</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23916,7 +23916,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K19" t="n">
-        <v>14.93225064571201</v>
+        <v>14.93225064571202</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.87383288310646</v>
+        <v>80.87383288310647</v>
       </c>
       <c r="R19" t="n">
         <v>174.4537986637794</v>
@@ -23949,10 +23949,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595015</v>
       </c>
       <c r="W19" t="n">
-        <v>111.3918043887132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>312.9485729435643</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
         <v>205.8118405263978</v>
@@ -24028,16 +24028,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>106.0023114483785</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
-        <v>17.205282368231</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>121.2218514900063</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T22" t="n">
-        <v>52.54455953715794</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>92.5541201302687</v>
+        <v>40.88985800672322</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60.20213126120504</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I24" t="n">
-        <v>72.16022720352242</v>
+        <v>46.07643540114371</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S24" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T25" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2961362709901</v>
       </c>
       <c r="V25" t="n">
-        <v>85.69356525287583</v>
+        <v>25.3228646470034</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T26" t="n">
         <v>218.9999812970856</v>
       </c>
       <c r="U26" t="n">
-        <v>66.08908024906327</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>284.2341939144464</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>15.92485149919924</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,7 +24539,7 @@
         <v>136.8428928972591</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I27" t="n">
         <v>72.16022720352242</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>5.982352121484695</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U28" t="n">
-        <v>119.8520582000379</v>
+        <v>85.4667031872749</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>270.1283810666712</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>329.8924352648517</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>251.2707998041555</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>170.192701636254</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>121.0146088424438</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S30" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>193.8445547066091</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.571272790944</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>197.5616233040739</v>
       </c>
       <c r="X31" t="n">
-        <v>59.26557731808498</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>254.4686265342438</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>272.1301964088913</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>5.322678831819474</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>56.57590846953789</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.571272790944</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>158.4955995708086</v>
@@ -25125,19 +25125,19 @@
         <v>158.4218578960072</v>
       </c>
       <c r="S34" t="n">
-        <v>216.7022572194656</v>
+        <v>157.4587513335849</v>
       </c>
       <c r="T34" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2961362709901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>85.69356525287586</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>187.6986308346051</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>11.99834722524463</v>
       </c>
       <c r="Y35" t="n">
-        <v>117.8468397170981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>120.3892433210926</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I36" t="n">
         <v>72.16022720352242</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>6.794201557235397</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6.459207052901263</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.571272790944</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>158.4955995708086</v>
@@ -25365,7 +25365,7 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T37" t="n">
-        <v>213.6557050108882</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U37" t="n">
         <v>286.2961362709901</v>
@@ -25396,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>13.5708018662807</v>
       </c>
       <c r="G38" t="n">
         <v>414.3670737191223</v>
@@ -25411,7 +25411,7 @@
         <v>329.8924352648517</v>
       </c>
       <c r="I38" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>91.09422701486459</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S38" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>173.7060042377328</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,19 +25475,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I39" t="n">
         <v>72.16022720352242</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S39" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.1468615877626</v>
+        <v>16.18236701224691</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>35.57561809750905</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>65.04023199267586</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>142.8287537878153</v>
       </c>
       <c r="J40" t="n">
-        <v>63.68592579338139</v>
+        <v>63.68592579338138</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2961362709901</v>
+        <v>273.7995435511598</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>156.2064023056104</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.9999812970856</v>
@@ -25687,7 +25687,7 @@
         <v>251.2707998041555</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>4.369588456005204</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>50.51484746870466</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>89.40093090454889</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>198.1468615877626</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>142.8287537878153</v>
       </c>
       <c r="J43" t="n">
-        <v>63.68592579338139</v>
+        <v>63.68592579338138</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T43" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2961362709901</v>
+        <v>59.48135759416547</v>
       </c>
       <c r="V43" t="n">
-        <v>85.69356525287589</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.0216017937135</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S44" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9999812970856</v>
+        <v>43.14794607888334</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>7.568898562927558</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,16 +25994,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>3.997182010983721</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>15.92854974202487</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J46" t="n">
         <v>63.68592579338139</v>
@@ -26079,7 +26079,7 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2961362709901</v>
+        <v>147.009843608644</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465607.1527581618</v>
+        <v>465607.1527581619</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493310.5173294217</v>
+        <v>493310.5173294219</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493310.5173294219</v>
+        <v>493310.5173294218</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>493310.5173294218</v>
+        <v>493310.5173294219</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493310.5173294217</v>
+        <v>493310.5173294218</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656421.6275990095</v>
+        <v>656421.6275990097</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656421.6275990098</v>
+        <v>656421.6275990095</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656421.6275990094</v>
+        <v>656421.6275990097</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656421.6275990095</v>
+        <v>656421.6275990097</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656421.6275990095</v>
+        <v>656421.6275990097</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656421.6275990095</v>
+        <v>656421.6275990097</v>
       </c>
     </row>
   </sheetData>
@@ -26334,22 +26334,22 @@
         <v>177181.833105651</v>
       </c>
       <c r="I2" t="n">
-        <v>241782.0775782848</v>
+        <v>241782.0775782847</v>
       </c>
       <c r="J2" t="n">
         <v>241782.0775782848</v>
       </c>
       <c r="K2" t="n">
-        <v>241782.0775782849</v>
+        <v>241782.0775782847</v>
       </c>
       <c r="L2" t="n">
+        <v>241782.0775782847</v>
+      </c>
+      <c r="M2" t="n">
+        <v>241782.0775782847</v>
+      </c>
+      <c r="N2" t="n">
         <v>241782.0775782848</v>
-      </c>
-      <c r="M2" t="n">
-        <v>241782.0775782848</v>
-      </c>
-      <c r="N2" t="n">
-        <v>241782.0775782847</v>
       </c>
       <c r="O2" t="n">
         <v>241782.0775782848</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923561</v>
+        <v>38628.8811292356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="C4" t="n">
         <v>50385.00392753458</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>50385.00392753457</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50385.00392753458</v>
       </c>
       <c r="E4" t="n">
         <v>50562.47198319522</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25493.04231155208</v>
+        <v>-14496.8327535156</v>
       </c>
       <c r="C6" t="n">
-        <v>55276.38921999565</v>
+        <v>66272.59877803213</v>
       </c>
       <c r="D6" t="n">
-        <v>55276.38921999571</v>
+        <v>66272.59877803213</v>
       </c>
       <c r="E6" t="n">
-        <v>58769.74788511555</v>
+        <v>69270.00521730765</v>
       </c>
       <c r="F6" t="n">
-        <v>97398.62901435122</v>
+        <v>107898.8863465432</v>
       </c>
       <c r="G6" t="n">
-        <v>97398.62901435119</v>
+        <v>107898.8863465432</v>
       </c>
       <c r="H6" t="n">
-        <v>97398.6290143511</v>
+        <v>107898.8863465432</v>
       </c>
       <c r="I6" t="n">
-        <v>-64751.09957699819</v>
+        <v>-57157.85324607469</v>
       </c>
       <c r="J6" t="n">
-        <v>82106.14801292637</v>
+        <v>89699.39434384997</v>
       </c>
       <c r="K6" t="n">
-        <v>145166.0906120327</v>
+        <v>152759.3369429561</v>
       </c>
       <c r="L6" t="n">
-        <v>145166.0906120326</v>
+        <v>152759.3369429561</v>
       </c>
       <c r="M6" t="n">
-        <v>136408.507616819</v>
+        <v>144001.7539477425</v>
       </c>
       <c r="N6" t="n">
-        <v>145166.0906120325</v>
+        <v>152759.3369429562</v>
       </c>
       <c r="O6" t="n">
-        <v>145166.0906120327</v>
+        <v>152759.3369429562</v>
       </c>
       <c r="P6" t="n">
-        <v>145166.0906120326</v>
+        <v>152759.3369429562</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912527</v>
       </c>
       <c r="F3" t="n">
         <v>35.02126071912529</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912528</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912531</v>
       </c>
       <c r="I3" t="n">
         <v>232.7463692581684</v>
@@ -26773,10 +26773,10 @@
         <v>232.7463692581684</v>
       </c>
       <c r="N3" t="n">
-        <v>232.7463692581683</v>
+        <v>232.7463692581684</v>
       </c>
       <c r="O3" t="n">
-        <v>232.7463692581683</v>
+        <v>232.7463692581684</v>
       </c>
       <c r="P3" t="n">
         <v>232.7463692581683</v>
@@ -26810,13 +26810,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="I4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="J4" t="n">
         <v>505.8480854901219</v>
       </c>
       <c r="K4" t="n">
-        <v>505.848085490122</v>
+        <v>505.8480854901219</v>
       </c>
       <c r="L4" t="n">
         <v>505.8480854901219</v>
@@ -26828,7 +26828,7 @@
         <v>505.8480854901219</v>
       </c>
       <c r="O4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="P4" t="n">
         <v>505.8480854901219</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>229.6915717877665</v>
+        <v>229.6915717877666</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155789</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466299</v>
+        <v>1.441855221466298</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276011</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461251</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884596</v>
       </c>
       <c r="L11" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470698</v>
       </c>
       <c r="M11" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677228</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840331</v>
+        <v>25.1213310684033</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081213</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411503</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796961</v>
+        <v>15.2036268079696</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870364</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847507</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626969</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524631</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132606</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520176</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727674</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779978</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335882</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358771</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192327</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833405</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689046</v>
       </c>
       <c r="P12" t="n">
         <v>14.38448725650261</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164359</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263562</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504674</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497747</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008295</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006197</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623695</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227318</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174381</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170833</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894668</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948802</v>
       </c>
       <c r="N13" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394035</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179675</v>
+        <v>8.92640265017967</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938405</v>
+        <v>7.6380795509384</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587916</v>
       </c>
       <c r="R13" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390058</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025625</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457192</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094293</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155789</v>
       </c>
       <c r="H17" t="n">
-        <v>1.441855221466299</v>
+        <v>1.441855221466298</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760111</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461251</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884596</v>
       </c>
       <c r="L17" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470699</v>
       </c>
       <c r="M17" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677229</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840331</v>
+        <v>25.1213310684033</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081214</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411503</v>
       </c>
       <c r="Q17" t="n">
         <v>15.20362680796961</v>
       </c>
       <c r="R17" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870366</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847508</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162697</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524631</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132608</v>
       </c>
       <c r="H18" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520177</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727675</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779979</v>
       </c>
       <c r="K18" t="n">
         <v>12.16394109335883</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358771</v>
       </c>
       <c r="M18" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192327</v>
       </c>
       <c r="N18" t="n">
         <v>19.59175225833406</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689046</v>
       </c>
       <c r="P18" t="n">
         <v>14.38448725650261</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164361</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263563</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504674</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497747</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008297</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006197</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623696</v>
       </c>
       <c r="I19" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227319</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174382</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170835</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894669</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948804</v>
       </c>
       <c r="N19" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394036</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179671</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938402</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587917</v>
       </c>
       <c r="R19" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390059</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025625</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457192</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094293</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>1.441855221466299</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760116</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461251</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L20" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M20" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677231</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840333</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081216</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411505</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796962</v>
       </c>
       <c r="R20" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870373</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847509</v>
+        <v>3.20822905984751</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626975</v>
       </c>
       <c r="U20" t="n">
         <v>0.01126311902524632</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132613</v>
       </c>
       <c r="H21" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520184</v>
       </c>
       <c r="I21" t="n">
         <v>2.593555628727676</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779985</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L21" t="n">
         <v>16.35591992358772</v>
       </c>
       <c r="M21" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192329</v>
       </c>
       <c r="N21" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833407</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689048</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650262</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164368</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263566</v>
       </c>
       <c r="S21" t="n">
         <v>1.399198482504675</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.303627722649775</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.0049558387810083</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006202</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.56148840956237</v>
       </c>
       <c r="I22" t="n">
         <v>1.89918574522732</v>
       </c>
       <c r="J22" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174385</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170841</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894678</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948813</v>
       </c>
       <c r="N22" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394043</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179678</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938408</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587921</v>
       </c>
       <c r="R22" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390061</v>
       </c>
       <c r="S22" t="n">
         <v>1.100586177025626</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457195</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094296</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127364</v>
       </c>
       <c r="H38" t="n">
-        <v>9.582366850915438</v>
+        <v>9.58236685091544</v>
       </c>
       <c r="I38" t="n">
         <v>36.07217849578105</v>
       </c>
       <c r="J38" t="n">
-        <v>79.41329510683605</v>
+        <v>79.41329510683606</v>
       </c>
       <c r="K38" t="n">
         <v>119.0199435920552</v>
@@ -33927,7 +33927,7 @@
         <v>4.095868267045756</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07485310368101888</v>
+        <v>0.0748531036810189</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5006242659515319</v>
+        <v>0.500624265951532</v>
       </c>
       <c r="H39" t="n">
-        <v>4.834976463268743</v>
+        <v>4.834976463268744</v>
       </c>
       <c r="I39" t="n">
         <v>17.23640564789266</v>
@@ -33994,10 +33994,10 @@
         <v>95.59727759209561</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.90424840462011</v>
+        <v>63.90424840462012</v>
       </c>
       <c r="R39" t="n">
-        <v>31.08261889828898</v>
+        <v>31.08261889828899</v>
       </c>
       <c r="S39" t="n">
         <v>9.298876168003229</v>
@@ -34006,7 +34006,7 @@
         <v>2.017867107059025</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03293580697049553</v>
+        <v>0.03293580697049554</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4197065675147297</v>
+        <v>0.4197065675147298</v>
       </c>
       <c r="H40" t="n">
-        <v>3.731572936630963</v>
+        <v>3.731572936630964</v>
       </c>
       <c r="I40" t="n">
         <v>12.62172113944297</v>
       </c>
       <c r="J40" t="n">
-        <v>29.67325432329139</v>
+        <v>29.6732543232914</v>
       </c>
       <c r="K40" t="n">
         <v>48.76227211671132</v>
       </c>
       <c r="L40" t="n">
-        <v>62.39892004668992</v>
+        <v>62.39892004668993</v>
       </c>
       <c r="M40" t="n">
-        <v>65.79091221505894</v>
+        <v>65.79091221505895</v>
       </c>
       <c r="N40" t="n">
-        <v>64.22655137250409</v>
+        <v>64.2265513725041</v>
       </c>
       <c r="O40" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108201</v>
       </c>
       <c r="P40" t="n">
-        <v>50.76160158378147</v>
+        <v>50.76160158378148</v>
       </c>
       <c r="Q40" t="n">
         <v>35.14470175798342</v>
@@ -34079,7 +34079,7 @@
         <v>18.8715334811623</v>
       </c>
       <c r="S40" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506698</v>
       </c>
       <c r="T40" t="n">
         <v>1.793291697562936</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127364</v>
       </c>
       <c r="H41" t="n">
-        <v>9.582366850915438</v>
+        <v>9.58236685091544</v>
       </c>
       <c r="I41" t="n">
         <v>36.07217849578105</v>
       </c>
       <c r="J41" t="n">
-        <v>79.41329510683605</v>
+        <v>79.41329510683606</v>
       </c>
       <c r="K41" t="n">
         <v>119.0199435920552</v>
@@ -34164,7 +34164,7 @@
         <v>4.095868267045756</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07485310368101888</v>
+        <v>0.0748531036810189</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5006242659515319</v>
+        <v>0.500624265951532</v>
       </c>
       <c r="H42" t="n">
-        <v>4.834976463268743</v>
+        <v>4.834976463268744</v>
       </c>
       <c r="I42" t="n">
         <v>17.23640564789266</v>
@@ -34231,10 +34231,10 @@
         <v>95.59727759209561</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.90424840462011</v>
+        <v>63.90424840462012</v>
       </c>
       <c r="R42" t="n">
-        <v>31.08261889828898</v>
+        <v>31.08261889828899</v>
       </c>
       <c r="S42" t="n">
         <v>9.298876168003229</v>
@@ -34243,7 +34243,7 @@
         <v>2.017867107059025</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03293580697049553</v>
+        <v>0.03293580697049554</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,34 +34280,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4197065675147297</v>
+        <v>0.4197065675147298</v>
       </c>
       <c r="H43" t="n">
-        <v>3.731572936630963</v>
+        <v>3.731572936630964</v>
       </c>
       <c r="I43" t="n">
         <v>12.62172113944297</v>
       </c>
       <c r="J43" t="n">
-        <v>29.67325432329139</v>
+        <v>29.6732543232914</v>
       </c>
       <c r="K43" t="n">
         <v>48.76227211671132</v>
       </c>
       <c r="L43" t="n">
-        <v>62.39892004668992</v>
+        <v>62.39892004668993</v>
       </c>
       <c r="M43" t="n">
-        <v>65.79091221505894</v>
+        <v>65.79091221505895</v>
       </c>
       <c r="N43" t="n">
-        <v>64.22655137250409</v>
+        <v>64.2265513725041</v>
       </c>
       <c r="O43" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108201</v>
       </c>
       <c r="P43" t="n">
-        <v>50.76160158378147</v>
+        <v>50.76160158378148</v>
       </c>
       <c r="Q43" t="n">
         <v>35.14470175798342</v>
@@ -34316,7 +34316,7 @@
         <v>18.8715334811623</v>
       </c>
       <c r="S43" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506698</v>
       </c>
       <c r="T43" t="n">
         <v>1.793291697562936</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>121.9644487350301</v>
       </c>
       <c r="L11" t="n">
         <v>204.1123577751702</v>
@@ -35421,7 +35421,7 @@
         <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>233.0551918837965</v>
       </c>
       <c r="O11" t="n">
         <v>174.4233304118708</v>
@@ -35430,7 +35430,7 @@
         <v>110.8113448503281</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424808</v>
+        <v>5.2129275934248</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>269.5389906563205</v>
       </c>
       <c r="N12" t="n">
-        <v>151.8955562274026</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891755</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721081</v>
+        <v>36.9791678472108</v>
       </c>
       <c r="M13" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478939</v>
       </c>
       <c r="N13" t="n">
         <v>53.79631798062263</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421934</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831888</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>248.6418854471727</v>
@@ -35740,13 +35740,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="O15" t="n">
-        <v>153.725563888491</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>121.9644487350302</v>
+        <v>121.9644487350301</v>
       </c>
       <c r="L17" t="n">
         <v>204.1123577751702</v>
@@ -35895,7 +35895,7 @@
         <v>243.8886146223321</v>
       </c>
       <c r="N17" t="n">
-        <v>233.0551918837966</v>
+        <v>233.0551918837965</v>
       </c>
       <c r="O17" t="n">
         <v>174.4233304118708</v>
@@ -35904,7 +35904,7 @@
         <v>110.8113448503281</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424803</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.7877391315784</v>
+        <v>73.09363939595693</v>
       </c>
       <c r="L18" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>224.6389055562145</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N18" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P18" t="n">
         <v>198.8728484821095</v>
@@ -36050,16 +36050,16 @@
         <v>36.97916784721081</v>
       </c>
       <c r="M19" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478939</v>
       </c>
       <c r="N19" t="n">
         <v>53.79631798062263</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421934</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831893</v>
+        <v>4.91663881583189</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36138,10 +36138,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P20" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424816</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="L21" t="n">
         <v>248.6418854471727</v>
@@ -36211,7 +36211,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="N21" t="n">
-        <v>100.6082676511396</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>269.1887005891755</v>
@@ -36284,7 +36284,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M22" t="n">
         <v>49.4834113647894</v>
@@ -36293,10 +36293,10 @@
         <v>53.79631798062263</v>
       </c>
       <c r="O22" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831896</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>207.4636383870685</v>
       </c>
       <c r="L24" t="n">
-        <v>340.9851071285437</v>
+        <v>35.85375896200017</v>
       </c>
       <c r="M24" t="n">
         <v>450.4178010736833</v>
       </c>
       <c r="N24" t="n">
-        <v>173.0733419299043</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O24" t="n">
         <v>370.3773228808498</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>36.33205227497252</v>
       </c>
       <c r="L27" t="n">
         <v>340.9851071285437</v>
@@ -36694,7 +36694,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.88347547881098</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>383.4616757871813</v>
       </c>
       <c r="N29" t="n">
-        <v>374.886691097436</v>
+        <v>374.8866910974359</v>
       </c>
       <c r="O29" t="n">
         <v>308.3507932514997</v>
@@ -36913,7 +36913,7 @@
         <v>46.55142320383842</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L30" t="n">
         <v>340.9851071285437</v>
@@ -36928,10 +36928,10 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P30" t="n">
-        <v>280.0856388177025</v>
+        <v>108.9540527056066</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.33205227497318</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>207.4636383870685</v>
+        <v>82.88347547881092</v>
       </c>
       <c r="L33" t="n">
         <v>340.9851071285437</v>
       </c>
       <c r="M33" t="n">
-        <v>145.2864529071398</v>
+        <v>450.4178010736833</v>
       </c>
       <c r="N33" t="n">
         <v>478.2046900964478</v>
@@ -37168,7 +37168,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>207.4636383870685</v>
+        <v>82.88347547881139</v>
       </c>
       <c r="L36" t="n">
         <v>340.9851071285437</v>
@@ -37396,7 +37396,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N36" t="n">
-        <v>173.0733419299043</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O36" t="n">
         <v>370.3773228808498</v>
@@ -37405,7 +37405,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>67.46400575222353</v>
+        <v>67.46400575222354</v>
       </c>
       <c r="K38" t="n">
         <v>223.0755051182394</v>
       </c>
       <c r="L38" t="n">
-        <v>329.5495640697432</v>
+        <v>329.5495640697433</v>
       </c>
       <c r="M38" t="n">
         <v>383.4616757871813</v>
       </c>
       <c r="N38" t="n">
-        <v>374.8866910974359</v>
+        <v>374.886691097436</v>
       </c>
       <c r="O38" t="n">
         <v>308.3507932514997</v>
@@ -37630,10 +37630,10 @@
         <v>340.9851071285437</v>
       </c>
       <c r="M39" t="n">
-        <v>450.4178010736833</v>
+        <v>145.2864529071398</v>
       </c>
       <c r="N39" t="n">
-        <v>173.0733419299043</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O39" t="n">
         <v>370.3773228808498</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>26.49278029082846</v>
+        <v>26.49278029082847</v>
       </c>
       <c r="L40" t="n">
-        <v>89.98894530700605</v>
+        <v>89.98894530700608</v>
       </c>
       <c r="M40" t="n">
         <v>105.3747891768995</v>
@@ -37715,10 +37715,10 @@
         <v>108.3587237517327</v>
       </c>
       <c r="O40" t="n">
-        <v>83.90874347512167</v>
+        <v>83.90874347512168</v>
       </c>
       <c r="P40" t="n">
-        <v>48.04016084867496</v>
+        <v>48.04016084867497</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>67.46400575222353</v>
+        <v>67.46400575222354</v>
       </c>
       <c r="K41" t="n">
         <v>223.0755051182394</v>
       </c>
       <c r="L41" t="n">
-        <v>329.5495640697432</v>
+        <v>329.5495640697433</v>
       </c>
       <c r="M41" t="n">
         <v>383.4616757871813</v>
       </c>
       <c r="N41" t="n">
-        <v>374.8866910974359</v>
+        <v>374.886691097436</v>
       </c>
       <c r="O41" t="n">
         <v>308.3507932514997</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L42" t="n">
         <v>340.9851071285437</v>
@@ -37876,10 +37876,10 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P42" t="n">
-        <v>280.0856388177025</v>
+        <v>155.5054759094453</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.88347547881098</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>26.49278029082846</v>
+        <v>26.49278029082847</v>
       </c>
       <c r="L43" t="n">
-        <v>89.98894530700605</v>
+        <v>89.98894530700608</v>
       </c>
       <c r="M43" t="n">
         <v>105.3747891768995</v>
@@ -37952,10 +37952,10 @@
         <v>108.3587237517327</v>
       </c>
       <c r="O43" t="n">
-        <v>83.90874347512167</v>
+        <v>83.90874347512168</v>
       </c>
       <c r="P43" t="n">
-        <v>48.04016084867496</v>
+        <v>48.04016084867497</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>207.4636383870685</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>340.9851071285437</v>
@@ -38107,10 +38107,10 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N45" t="n">
-        <v>173.0733419299043</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O45" t="n">
-        <v>370.3773228808498</v>
+        <v>319.2610363052131</v>
       </c>
       <c r="P45" t="n">
         <v>280.0856388177025</v>
